--- a/RPS_J1_yoosh.xlsx
+++ b/RPS_J1_yoosh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/machub/CodeDir/jleague/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BE2F2D-A0DF-B64B-AB30-B49A16684D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE791EB-0C78-B84B-BB61-07922A6C237B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="1400" windowWidth="27640" windowHeight="16940" xr2:uid="{5DA62EE6-12B6-4E4B-9305-85ED27E920C9}"/>
+    <workbookView xWindow="1620" yWindow="2020" windowWidth="27640" windowHeight="16940" xr2:uid="{5DA62EE6-12B6-4E4B-9305-85ED27E920C9}"/>
   </bookViews>
   <sheets>
     <sheet name="ME J1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -126,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -147,6 +147,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -174,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -183,6 +191,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1971016B-5400-8E4D-AE04-8B5B560ADD6B}">
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,7 +584,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2">
         <f>AVERAGE(J2:J1000)</f>
-        <v>0.2354174213425414</v>
+        <v>0.22962392278121613</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
@@ -3001,13 +3010,643 @@
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B46" s="4"/>
+      <c r="B46" s="4">
+        <v>45049</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46">
+        <v>0.190295845270157</v>
+      </c>
+      <c r="F46">
+        <v>0.21808390319347401</v>
+      </c>
+      <c r="G46">
+        <v>0.59162020683288596</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ref="J46:J53" si="21">S46*(1/2)</f>
+        <v>0.10149326384115204</v>
+      </c>
+      <c r="N46" s="2">
+        <f t="shared" ref="N46:N53" si="22">IF(H46&gt;I46,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <f t="shared" ref="O46:O53" si="23">IF(H46=I46,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="2">
+        <f t="shared" ref="P46:P53" si="24">IF(H46&lt;I46,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" ref="Q46:Q53" si="25">(E46-N46)^2</f>
+        <v>3.6212508727083537E-2</v>
+      </c>
+      <c r="R46">
+        <f t="shared" ref="R46:R53" si="26">((E46+F46)-(N46+O46))^2+Q46</f>
+        <v>0.20298652768230208</v>
+      </c>
+      <c r="S46">
+        <f t="shared" ref="S46:S53" si="27">((E46+F46+G46)-(N46+O46+P46))^2+R46</f>
+        <v>0.20298652768230407</v>
+      </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B47" s="4"/>
+      <c r="B47" s="4">
+        <v>45049</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47">
+        <v>0.36844307184219399</v>
+      </c>
+      <c r="F47">
+        <v>0.24878340959549</v>
+      </c>
+      <c r="G47">
+        <v>0.38277348875999501</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="21"/>
+        <v>0.25835941328822831</v>
+      </c>
+      <c r="N47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="25"/>
+        <v>0.13575029718851211</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="26"/>
+        <v>0.51671882657645574</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="27"/>
+        <v>0.51671882657645662</v>
+      </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B48" s="4"/>
+      <c r="B48" s="4">
+        <v>45049</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48">
+        <v>0.29625847935676602</v>
+      </c>
+      <c r="F48">
+        <v>0.301602423191071</v>
+      </c>
+      <c r="G48">
+        <v>0.40213909745216397</v>
+      </c>
+      <c r="H48" s="5">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="21"/>
+        <v>0.22260337269304878</v>
+      </c>
+      <c r="N48" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="25"/>
+        <v>8.7769086590783363E-2</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="26"/>
+        <v>0.44520674538609756</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="27"/>
+        <v>0.44520674538609756</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B49" s="4">
+        <v>45049</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>0.26609468460083002</v>
+      </c>
+      <c r="F49">
+        <v>0.33509993553161599</v>
+      </c>
+      <c r="G49">
+        <v>0.39880537986755399</v>
+      </c>
+      <c r="H49" s="5">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="21"/>
+        <v>0.21612067622450565</v>
+      </c>
+      <c r="N49" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="25"/>
+        <v>7.0806381172815208E-2</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="26"/>
+        <v>0.4322413524490113</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="27"/>
+        <v>0.4322413524490113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B50" s="4">
+        <v>45049</v>
+      </c>
+      <c r="C50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50">
+        <v>0.19622363150119801</v>
+      </c>
+      <c r="F50">
+        <v>0.29908525943756098</v>
+      </c>
+      <c r="G50">
+        <v>0.50469112396240201</v>
+      </c>
+      <c r="H50" s="5">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="21"/>
+        <v>0.14191730550125078</v>
+      </c>
+      <c r="N50" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="25"/>
+        <v>3.8503713559517948E-2</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="26"/>
+        <v>0.28383461100250135</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="27"/>
+        <v>0.28383461100250157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B51" s="4">
+        <v>45049</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51">
+        <v>0.37289524078369102</v>
+      </c>
+      <c r="F51">
+        <v>0.282366663217545</v>
+      </c>
+      <c r="G51">
+        <v>0.34473806619644198</v>
+      </c>
+      <c r="H51" s="5">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="21"/>
+        <v>0.12894760771599043</v>
+      </c>
+      <c r="N51" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="P51" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="25"/>
+        <v>0.13905086059912691</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="26"/>
+        <v>0.25789521543197996</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="27"/>
+        <v>0.25789521543198085</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B52" s="4">
+        <v>45049</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52">
+        <v>0.45845836400985701</v>
+      </c>
+      <c r="F52">
+        <v>0.28070566058158902</v>
+      </c>
+      <c r="G52">
+        <v>0.26083594560623202</v>
+      </c>
+      <c r="H52" s="5">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="21"/>
+        <v>0.18065137478910662</v>
+      </c>
+      <c r="N52" s="2">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="O52" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="25"/>
+        <v>0.29326734351088057</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="26"/>
+        <v>0.36130274957821235</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="27"/>
+        <v>0.36130274957821323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B53" s="4">
+        <v>45049</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53">
+        <v>0.30173930525779702</v>
+      </c>
+      <c r="F53">
+        <v>0.27825966477394098</v>
+      </c>
+      <c r="G53">
+        <v>0.420001059770584</v>
+      </c>
+      <c r="H53" s="5">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="21"/>
+        <v>0.33198443149813289</v>
+      </c>
+      <c r="N53" s="2">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="O53" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="25"/>
+        <v>0.487567997821864</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="26"/>
+        <v>0.6639688629962649</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="27"/>
+        <v>0.66396886299626579</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>12</v>
+      </c>
+      <c r="B54" s="4">
+        <v>45052</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54">
+        <v>0.377435833215714</v>
+      </c>
+      <c r="F54">
+        <v>0.30322912335395802</v>
+      </c>
+      <c r="G54">
+        <v>0.31933498382568398</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>12</v>
+      </c>
+      <c r="B55" s="4">
+        <v>45052</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55">
+        <v>0.44629138708114602</v>
+      </c>
+      <c r="F55">
+        <v>0.355875074863434</v>
+      </c>
+      <c r="G55">
+        <v>0.19783350825309801</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>12</v>
+      </c>
+      <c r="B56" s="4">
+        <v>45053</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56">
+        <v>0.57940399646759</v>
+      </c>
+      <c r="F56">
+        <v>0.23027123510837599</v>
+      </c>
+      <c r="G56">
+        <v>0.19032472372055101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>12</v>
+      </c>
+      <c r="B57" s="4">
+        <v>45053</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57">
+        <v>0.711478412151337</v>
+      </c>
+      <c r="F57">
+        <v>0.18414203822612801</v>
+      </c>
+      <c r="G57">
+        <v>0.104379549622536</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>12</v>
+      </c>
+      <c r="B58" s="4">
+        <v>45053</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>0.46152269840240501</v>
+      </c>
+      <c r="F58">
+        <v>0.25843647122383101</v>
+      </c>
+      <c r="G58">
+        <v>0.28004083037376398</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>12</v>
+      </c>
+      <c r="B59" s="4">
+        <v>45053</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59">
+        <v>0.61434984207153298</v>
+      </c>
+      <c r="F59">
+        <v>0.21451455354690599</v>
+      </c>
+      <c r="G59">
+        <v>0.1711355894804</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>12</v>
+      </c>
+      <c r="B60" s="4">
+        <v>45053</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60">
+        <v>0.35574853420257602</v>
+      </c>
+      <c r="F60">
+        <v>0.33347219228744501</v>
+      </c>
+      <c r="G60">
+        <v>0.31077924370765703</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>12</v>
+      </c>
+      <c r="B61" s="4">
+        <v>45053</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61">
+        <v>0.59765577316284202</v>
+      </c>
+      <c r="F61">
+        <v>0.21787391602993</v>
+      </c>
+      <c r="G61">
+        <v>0.18447031080722801</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>10</v>
+      </c>
+      <c r="B62" s="4">
+        <v>45056</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62">
+        <v>0.66732662916183505</v>
+      </c>
+      <c r="F62">
+        <v>0.18831457197666199</v>
+      </c>
+      <c r="G62">
+        <v>0.14435882866382599</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RPS_J1_yoosh.xlsx
+++ b/RPS_J1_yoosh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/machub/CodeDir/jleague/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE791EB-0C78-B84B-BB61-07922A6C237B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBF84BC-F914-9C42-B8EF-4C6C849FBF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="2020" windowWidth="27640" windowHeight="16940" xr2:uid="{5DA62EE6-12B6-4E4B-9305-85ED27E920C9}"/>
+    <workbookView xWindow="1540" yWindow="2400" windowWidth="27640" windowHeight="16940" xr2:uid="{5DA62EE6-12B6-4E4B-9305-85ED27E920C9}"/>
   </bookViews>
   <sheets>
     <sheet name="ME J1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -506,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1971016B-5400-8E4D-AE04-8B5B560ADD6B}">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,7 +584,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2">
         <f>AVERAGE(J2:J1000)</f>
-        <v>0.22962392278121613</v>
+        <v>0.23169001898339567</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
@@ -3463,6 +3463,40 @@
       <c r="G54">
         <v>0.31933498382568398</v>
       </c>
+      <c r="H54" s="5">
+        <v>5</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <f t="shared" ref="J54:J62" si="28">S54*(1/2)</f>
+        <v>0.24478050586323266</v>
+      </c>
+      <c r="N54" s="2">
+        <f t="shared" ref="N54:N62" si="29">IF(H54&gt;I54,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O54" s="2">
+        <f t="shared" ref="O54:O62" si="30">IF(H54=I54,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P54" s="2">
+        <f t="shared" ref="P54:P62" si="31">IF(H54&lt;I54,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" ref="Q54:Q62" si="32">(E54-N54)^2</f>
+        <v>0.38758614176381234</v>
+      </c>
+      <c r="R54">
+        <f t="shared" ref="R54:R62" si="33">((E54+F54)-(N54+O54))^2+Q54</f>
+        <v>0.48956101172646177</v>
+      </c>
+      <c r="S54">
+        <f t="shared" ref="S54:S62" si="34">((E54+F54+G54)-(N54+O54+P54))^2+R54</f>
+        <v>0.48956101172646532</v>
+      </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
@@ -3486,6 +3520,40 @@
       <c r="G55">
         <v>0.19783350825309801</v>
       </c>
+      <c r="H55" s="5">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="28"/>
+        <v>0.17286566840002371</v>
+      </c>
+      <c r="N55" s="2">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O55" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="32"/>
+        <v>0.30659322802052125</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="33"/>
+        <v>0.34573133680004653</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="34"/>
+        <v>0.34573133680004742</v>
+      </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
@@ -3509,6 +3577,40 @@
       <c r="G56">
         <v>0.19032472372055101</v>
       </c>
+      <c r="H56" s="5">
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="28"/>
+        <v>0.1065622578315496</v>
+      </c>
+      <c r="N56" s="2">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O56" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="32"/>
+        <v>0.17690099818743504</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="33"/>
+        <v>0.2131245156630972</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="34"/>
+        <v>0.2131245156630992</v>
+      </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
@@ -3532,6 +3634,40 @@
       <c r="G57">
         <v>0.104379549622536</v>
       </c>
+      <c r="H57" s="5">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="28"/>
+        <v>4.7069898517058506E-2</v>
+      </c>
+      <c r="N57" s="2">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O57" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="32"/>
+        <v>8.3244706654713757E-2</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="33"/>
+        <v>9.4139797034117012E-2</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="34"/>
+        <v>9.4139797034117012E-2</v>
+      </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
@@ -3555,6 +3691,40 @@
       <c r="G58">
         <v>0.28004083037376398</v>
       </c>
+      <c r="H58" s="5">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="28"/>
+        <v>0.1457130339085323</v>
+      </c>
+      <c r="N58" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="2">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="P58" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="32"/>
+        <v>0.21300320114063728</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="33"/>
+        <v>0.29142606781706459</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="34"/>
+        <v>0.29142606781706459</v>
+      </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
@@ -3578,6 +3748,40 @@
       <c r="G59">
         <v>0.1711355894804</v>
       </c>
+      <c r="H59" s="5">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="28"/>
+        <v>8.9006719698646972E-2</v>
+      </c>
+      <c r="N59" s="2">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O59" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="32"/>
+        <v>0.14872604431025155</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="33"/>
+        <v>0.17801343939729372</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="34"/>
+        <v>0.17801343939729394</v>
+      </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
@@ -3601,6 +3805,40 @@
       <c r="G60">
         <v>0.31077924370765703</v>
       </c>
+      <c r="H60" s="5">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="28"/>
+        <v>0.3007911147053573</v>
+      </c>
+      <c r="N60" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="2">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="32"/>
+        <v>0.12655701958728141</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="33"/>
+        <v>0.60158222941071371</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="34"/>
+        <v>0.6015822294107146</v>
+      </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
@@ -3624,6 +3862,40 @@
       <c r="G61">
         <v>0.18447031080722801</v>
       </c>
+      <c r="H61" s="5">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="28"/>
+        <v>9.7955086219252863E-2</v>
+      </c>
+      <c r="N61" s="2">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O61" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="32"/>
+        <v>0.16188087686919045</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="33"/>
+        <v>0.19591017243850573</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="34"/>
+        <v>0.19591017243850573</v>
+      </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
@@ -3646,6 +3918,760 @@
       </c>
       <c r="G62">
         <v>0.14435882866382599</v>
+      </c>
+      <c r="H62" s="5">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="28"/>
+        <v>0.58872334753711408</v>
+      </c>
+      <c r="N62" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="2">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="32"/>
+        <v>0.44532482998849732</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="33"/>
+        <v>1.1774466950742273</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="34"/>
+        <v>1.1774466950742282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
+        <v>13</v>
+      </c>
+      <c r="B63" s="4">
+        <v>45058</v>
+      </c>
+      <c r="C63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63">
+        <v>0.296571254730225</v>
+      </c>
+      <c r="F63">
+        <v>0.23409605026245101</v>
+      </c>
+      <c r="G63">
+        <v>0.469332665205002</v>
+      </c>
+      <c r="H63" s="5">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <f t="shared" ref="J63:J71" si="35">S63*(1/2)</f>
+        <v>0.35754258913732428</v>
+      </c>
+      <c r="N63" s="2">
+        <f t="shared" ref="N63:N71" si="36">IF(H63&gt;I63,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O63" s="2">
+        <f t="shared" ref="O63:O71" si="37">IF(H63=I63,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P63" s="2">
+        <f t="shared" ref="P63:P71" si="38">IF(H63&lt;I63,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" ref="Q63:Q71" si="39">(E63-N63)^2</f>
+        <v>0.49481199967180994</v>
+      </c>
+      <c r="R63">
+        <f t="shared" ref="R63:R71" si="40">((E63+F63)-(N63+O63))^2+Q63</f>
+        <v>0.71508517827464768</v>
+      </c>
+      <c r="S63">
+        <f t="shared" ref="S63:S71" si="41">((E63+F63+G63)-(N63+O63+P63))^2+R63</f>
+        <v>0.71508517827464857</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>13</v>
+      </c>
+      <c r="B64" s="4">
+        <v>45059</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64">
+        <v>0.45914345979690602</v>
+      </c>
+      <c r="F64">
+        <v>0.22004559636116</v>
+      </c>
+      <c r="G64">
+        <v>0.32081094384193398</v>
+      </c>
+      <c r="H64" s="5">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="35"/>
+        <v>0.19772272938460678</v>
+      </c>
+      <c r="N64" s="2">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="O64" s="2">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="2">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="39"/>
+        <v>0.29252579708046106</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="40"/>
+        <v>0.39544545876921355</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="41"/>
+        <v>0.39544545876921355</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <v>13</v>
+      </c>
+      <c r="B65" s="4">
+        <v>45059</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65">
+        <v>0.38674163818359403</v>
+      </c>
+      <c r="F65">
+        <v>0.31528195738792397</v>
+      </c>
+      <c r="G65">
+        <v>0.29797637462616</v>
+      </c>
+      <c r="H65" s="5">
+        <v>2</v>
+      </c>
+      <c r="I65">
+        <v>4</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="35"/>
+        <v>0.32120311172204652</v>
+      </c>
+      <c r="N65" s="2">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="2">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="2">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="39"/>
+        <v>0.14956909470492996</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="40"/>
+        <v>0.64240622344409215</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="41"/>
+        <v>0.64240622344409304</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>13</v>
+      </c>
+      <c r="B66" s="4">
+        <v>45059</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66">
+        <v>0.48900437355041498</v>
+      </c>
+      <c r="F66">
+        <v>0.31031259894370999</v>
+      </c>
+      <c r="G66">
+        <v>0.200682953000069</v>
+      </c>
+      <c r="H66" s="5">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="35"/>
+        <v>0.43901644993430655</v>
+      </c>
+      <c r="N66" s="2">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="2">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="2">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="39"/>
+        <v>0.2391252773514338</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="40"/>
+        <v>0.87803289986860755</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="41"/>
+        <v>0.8780328998686131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>13</v>
+      </c>
+      <c r="B67" s="4">
+        <v>45060</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67">
+        <v>0.45064738392829901</v>
+      </c>
+      <c r="F67">
+        <v>0.293490290641785</v>
+      </c>
+      <c r="G67">
+        <v>0.25586235523223899</v>
+      </c>
+      <c r="H67" s="5">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="35"/>
+        <v>0.13427429710791242</v>
+      </c>
+      <c r="N67" s="2">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="2">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="P67" s="2">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="39"/>
+        <v>0.20308306464141973</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="40"/>
+        <v>0.26854859421582394</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="41"/>
+        <v>0.26854859421582483</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
+        <v>13</v>
+      </c>
+      <c r="B68" s="4">
+        <v>45060</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68">
+        <v>0.41730448603630099</v>
+      </c>
+      <c r="F68">
+        <v>0.22916783392429399</v>
+      </c>
+      <c r="G68">
+        <v>0.35352772474288902</v>
+      </c>
+      <c r="H68" s="5">
+        <v>2</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="35"/>
+        <v>0.23225794127373264</v>
+      </c>
+      <c r="N68" s="2">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="O68" s="2">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="2">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="39"/>
+        <v>0.33953406199341934</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="40"/>
+        <v>0.46451588254746329</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="41"/>
+        <v>0.46451588254746529</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>13</v>
+      </c>
+      <c r="B69" s="4">
+        <v>45060</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69">
+        <v>0.28098189830780002</v>
+      </c>
+      <c r="F69">
+        <v>0.40460854768753002</v>
+      </c>
+      <c r="G69">
+        <v>0.31440958380699202</v>
+      </c>
+      <c r="H69" s="5">
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="35"/>
+        <v>0.30792019910523555</v>
+      </c>
+      <c r="N69" s="2">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="O69" s="2">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="2">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="39"/>
+        <v>0.51698703056105477</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="40"/>
+        <v>0.61584039821047021</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="41"/>
+        <v>0.6158403982104711</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>13</v>
+      </c>
+      <c r="B70" s="4">
+        <v>45060</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70">
+        <v>0.51358026266098</v>
+      </c>
+      <c r="F70">
+        <v>0.25153657793998702</v>
+      </c>
+      <c r="G70">
+        <v>0.23488314449787101</v>
+      </c>
+      <c r="H70" s="5">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="35"/>
+        <v>0.42458423298306347</v>
+      </c>
+      <c r="N70" s="2">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="2">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="2">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="39"/>
+        <v>0.26376468619492122</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="40"/>
+        <v>0.84916846596612672</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="41"/>
+        <v>0.84916846596612694</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>13</v>
+      </c>
+      <c r="B71" s="4">
+        <v>45060</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71">
+        <v>0.650579214096069</v>
+      </c>
+      <c r="F71">
+        <v>0.21659971773624401</v>
+      </c>
+      <c r="G71">
+        <v>0.13282109797000899</v>
+      </c>
+      <c r="H71" s="5">
+        <v>3</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="35"/>
+        <v>6.9868160885463521E-2</v>
+      </c>
+      <c r="N71" s="2">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="O71" s="2">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="2">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="39"/>
+        <v>0.12209488562172079</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="40"/>
+        <v>0.13973632177092615</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="41"/>
+        <v>0.13973632177092704</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>14</v>
+      </c>
+      <c r="B72" s="4">
+        <v>45065</v>
+      </c>
+      <c r="C72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72">
+        <v>0.46325486898422202</v>
+      </c>
+      <c r="F72">
+        <v>0.29971364140510598</v>
+      </c>
+      <c r="G72">
+        <v>0.237031430006027</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>14</v>
+      </c>
+      <c r="B73" s="4">
+        <v>45066</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73">
+        <v>0.50200533866882302</v>
+      </c>
+      <c r="F73">
+        <v>0.24938178062439001</v>
+      </c>
+      <c r="G73">
+        <v>0.248612821102142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
+        <v>14</v>
+      </c>
+      <c r="B74" s="4">
+        <v>45066</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74">
+        <v>0.32526993751525901</v>
+      </c>
+      <c r="F74">
+        <v>0.31298738718032798</v>
+      </c>
+      <c r="G74">
+        <v>0.36174270510673501</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
+        <v>14</v>
+      </c>
+      <c r="B75" s="4">
+        <v>45066</v>
+      </c>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75">
+        <v>0.356682449579239</v>
+      </c>
+      <c r="F75">
+        <v>0.34181183576583901</v>
+      </c>
+      <c r="G75">
+        <v>0.30150568485259999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>14</v>
+      </c>
+      <c r="B76" s="4">
+        <v>45066</v>
+      </c>
+      <c r="C76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76">
+        <v>0.29005974531173701</v>
+      </c>
+      <c r="F76">
+        <v>0.36604550480842601</v>
+      </c>
+      <c r="G76">
+        <v>0.34389472007751498</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
+        <v>14</v>
+      </c>
+      <c r="B77" s="4">
+        <v>45066</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77">
+        <v>0.19153605401516</v>
+      </c>
+      <c r="F77">
+        <v>0.228974878787994</v>
+      </c>
+      <c r="G77">
+        <v>0.57948905229568504</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
+        <v>14</v>
+      </c>
+      <c r="B78" s="4">
+        <v>45066</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78">
+        <v>0.21450150012970001</v>
+      </c>
+      <c r="F78">
+        <v>0.28392085433006298</v>
+      </c>
+      <c r="G78">
+        <v>0.50157767534256004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
+        <v>14</v>
+      </c>
+      <c r="B79" s="4">
+        <v>45066</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79">
+        <v>0.26895317435264599</v>
+      </c>
+      <c r="F79">
+        <v>0.30918127298355103</v>
+      </c>
+      <c r="G79">
+        <v>0.42186552286148099</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
+        <v>14</v>
+      </c>
+      <c r="B80" s="4">
+        <v>45066</v>
+      </c>
+      <c r="C80" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80">
+        <v>0.30462589859962502</v>
+      </c>
+      <c r="F80">
+        <v>0.235578998923302</v>
+      </c>
+      <c r="G80">
+        <v>0.45979511737823497</v>
       </c>
     </row>
   </sheetData>

--- a/RPS_J1_yoosh.xlsx
+++ b/RPS_J1_yoosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/machub/CodeDir/jleague/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBF84BC-F914-9C42-B8EF-4C6C849FBF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528EE0C0-B51A-9E47-AD99-5F947E7DC44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="2400" windowWidth="27640" windowHeight="16940" xr2:uid="{5DA62EE6-12B6-4E4B-9305-85ED27E920C9}"/>
   </bookViews>
@@ -126,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -161,6 +161,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.4"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -179,10 +193,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -192,8 +207,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -506,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1971016B-5400-8E4D-AE04-8B5B560ADD6B}">
-  <dimension ref="A1:S80"/>
+  <dimension ref="A1:S92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,7 +605,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2">
         <f>AVERAGE(J2:J1000)</f>
-        <v>0.23169001898339567</v>
+        <v>0.23289611215447706</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
@@ -4489,6 +4510,40 @@
       <c r="G72">
         <v>0.237031430006027</v>
       </c>
+      <c r="H72" s="11">
+        <v>2</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ref="J72:J80" si="42">S72*(1/2)</f>
+        <v>0.1721396313681012</v>
+      </c>
+      <c r="N72" s="2">
+        <f t="shared" ref="N72:N80" si="43">IF(H72&gt;I72,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O72" s="2">
+        <f t="shared" ref="O72:O80" si="44">IF(H72=I72,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P72" s="2">
+        <f t="shared" ref="P72:P80" si="45">IF(H72&lt;I72,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" ref="Q72:Q80" si="46">(E72-N72)^2</f>
+        <v>0.28809533566914475</v>
+      </c>
+      <c r="R72">
+        <f t="shared" ref="R72:R80" si="47">((E72+F72)-(N72+O72))^2+Q72</f>
+        <v>0.34427926273619885</v>
+      </c>
+      <c r="S72">
+        <f t="shared" ref="S72:S80" si="48">((E72+F72+G72)-(N72+O72+P72))^2+R72</f>
+        <v>0.34427926273620241</v>
+      </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
@@ -4512,6 +4567,40 @@
       <c r="G73">
         <v>0.248612821102142</v>
       </c>
+      <c r="H73" s="11">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="42"/>
+        <v>0.15690886225266518</v>
+      </c>
+      <c r="N73" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="2">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="P73" s="2">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="46"/>
+        <v>0.2520093600519997</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="47"/>
+        <v>0.3138177245053268</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="48"/>
+        <v>0.31381772450533035</v>
+      </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
@@ -4535,6 +4624,40 @@
       <c r="G74">
         <v>0.36174270510673501</v>
       </c>
+      <c r="H74" s="11">
+        <v>2</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="42"/>
+        <v>0.29305921017852871</v>
+      </c>
+      <c r="N74" s="2">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="O74" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="2">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="46"/>
+        <v>0.4552606572206625</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="47"/>
+        <v>0.58611842035705652</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="48"/>
+        <v>0.58611842035705741</v>
+      </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
@@ -4558,6 +4681,40 @@
       <c r="G75">
         <v>0.30150568485259999</v>
       </c>
+      <c r="H75" s="11">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="42"/>
+        <v>0.10906403290371128</v>
+      </c>
+      <c r="N75" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O75" s="2">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="P75" s="2">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="46"/>
+        <v>0.12722236983784638</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="47"/>
+        <v>0.21812806580742167</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="48"/>
+        <v>0.21812806580742256</v>
+      </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
@@ -4581,6 +4738,40 @@
       <c r="G76">
         <v>0.34389472007751498</v>
       </c>
+      <c r="H76" s="11">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="42"/>
+        <v>0.25730437754277613</v>
+      </c>
+      <c r="N76" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O76" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="2">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="46"/>
+        <v>8.4134655850309742E-2</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="47"/>
+        <v>0.51460875508555137</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="48"/>
+        <v>0.51460875508555226</v>
+      </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
@@ -4604,6 +4795,40 @@
       <c r="G77">
         <v>0.57948905229568504</v>
       </c>
+      <c r="H77" s="11">
+        <v>2</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="42"/>
+        <v>0.49471076547902459</v>
+      </c>
+      <c r="N77" s="2">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="O77" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="2">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="46"/>
+        <v>0.65361395195737826</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="47"/>
+        <v>0.98942153095804897</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="48"/>
+        <v>0.98942153095804919</v>
+      </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
@@ -4627,6 +4852,40 @@
       <c r="G78">
         <v>0.50157767534256004</v>
       </c>
+      <c r="H78" s="11">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="42"/>
+        <v>0.14879551403179009</v>
+      </c>
+      <c r="N78" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O78" s="2">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="P78" s="2">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="46"/>
+        <v>4.6010893557891695E-2</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="47"/>
+        <v>0.29759102806357929</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="48"/>
+        <v>0.29759102806358018</v>
+      </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
@@ -4650,6 +4909,40 @@
       <c r="G79">
         <v>0.42186552286148099</v>
       </c>
+      <c r="H79" s="11">
+        <v>2</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="42"/>
+        <v>0.35620000290670484</v>
+      </c>
+      <c r="N79" s="2">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="O79" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P79" s="2">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="46"/>
+        <v>0.53442946128907287</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="47"/>
+        <v>0.71240000581340879</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="48"/>
+        <v>0.71240000581340968</v>
+      </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
@@ -4673,6 +4966,138 @@
       <c r="G80">
         <v>0.45979511737823497</v>
       </c>
+      <c r="H80" s="11">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="42"/>
+        <v>0.19230913470269265</v>
+      </c>
+      <c r="N80" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O80" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P80" s="2">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="46"/>
+        <v>9.2796938097629025E-2</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="47"/>
+        <v>0.38461826940538507</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="48"/>
+        <v>0.38461826940538529</v>
+      </c>
+    </row>
+    <row r="84" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="7"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="7"/>
+    </row>
+    <row r="85" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="7"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="7"/>
+    </row>
+    <row r="86" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="7"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="7"/>
+    </row>
+    <row r="87" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="7"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="7"/>
+    </row>
+    <row r="88" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="7"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="7"/>
+    </row>
+    <row r="89" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="7"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="7"/>
+    </row>
+    <row r="90" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="7"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="7"/>
+    </row>
+    <row r="91" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="7"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="7"/>
+    </row>
+    <row r="92" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="7"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RPS_J1_yoosh.xlsx
+++ b/RPS_J1_yoosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/machub/CodeDir/jleague/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528EE0C0-B51A-9E47-AD99-5F947E7DC44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D44E5DB-EF8D-6142-B442-DC0A48BB4F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="2400" windowWidth="27640" windowHeight="16940" xr2:uid="{5DA62EE6-12B6-4E4B-9305-85ED27E920C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -197,7 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -208,10 +208,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -527,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1971016B-5400-8E4D-AE04-8B5B560ADD6B}">
-  <dimension ref="A1:S92"/>
+  <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -605,7 +603,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2">
         <f>AVERAGE(J2:J1000)</f>
-        <v>0.23289611215447706</v>
+        <v>0.2288382003816497</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
@@ -4510,7 +4508,7 @@
       <c r="G72">
         <v>0.237031430006027</v>
       </c>
-      <c r="H72" s="11">
+      <c r="H72">
         <v>2</v>
       </c>
       <c r="I72">
@@ -4567,7 +4565,7 @@
       <c r="G73">
         <v>0.248612821102142</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
@@ -4624,7 +4622,7 @@
       <c r="G74">
         <v>0.36174270510673501</v>
       </c>
-      <c r="H74" s="11">
+      <c r="H74">
         <v>2</v>
       </c>
       <c r="I74">
@@ -4681,7 +4679,7 @@
       <c r="G75">
         <v>0.30150568485259999</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
@@ -4738,7 +4736,7 @@
       <c r="G76">
         <v>0.34389472007751498</v>
       </c>
-      <c r="H76" s="11">
+      <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
@@ -4795,7 +4793,7 @@
       <c r="G77">
         <v>0.57948905229568504</v>
       </c>
-      <c r="H77" s="11">
+      <c r="H77">
         <v>2</v>
       </c>
       <c r="I77">
@@ -4852,7 +4850,7 @@
       <c r="G78">
         <v>0.50157767534256004</v>
       </c>
-      <c r="H78" s="11">
+      <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
@@ -4909,7 +4907,7 @@
       <c r="G79">
         <v>0.42186552286148099</v>
       </c>
-      <c r="H79" s="11">
+      <c r="H79">
         <v>2</v>
       </c>
       <c r="I79">
@@ -4966,7 +4964,7 @@
       <c r="G80">
         <v>0.45979511737823497</v>
       </c>
-      <c r="H80" s="11">
+      <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
@@ -5001,103 +4999,762 @@
         <v>0.38461826940538529</v>
       </c>
     </row>
-    <row r="84" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="7"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="9"/>
-      <c r="O84" s="7"/>
-    </row>
-    <row r="85" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="7"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="7"/>
-    </row>
-    <row r="86" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="7"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="7"/>
-    </row>
-    <row r="87" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="7"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="9"/>
-      <c r="O87" s="7"/>
-    </row>
-    <row r="88" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="7"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="9"/>
-      <c r="O88" s="7"/>
-    </row>
-    <row r="89" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="7"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="9"/>
-      <c r="O89" s="7"/>
-    </row>
-    <row r="90" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="7"/>
-      <c r="K90" s="10"/>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
+        <v>15</v>
+      </c>
+      <c r="B81" s="4">
+        <v>45073</v>
+      </c>
+      <c r="C81" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81">
+        <v>0.40852490067482</v>
+      </c>
+      <c r="F81">
+        <v>0.27932783961296098</v>
+      </c>
+      <c r="G81">
+        <v>0.31214722990989702</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <f t="shared" ref="J81:J89" si="49">S81*(1/2)</f>
+        <v>0.320016993396391</v>
+      </c>
+      <c r="N81" s="2">
+        <f t="shared" ref="N81:N89" si="50">IF(H81&gt;I81,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O81" s="2">
+        <f t="shared" ref="O81:O89" si="51">IF(H81=I81,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P81" s="2">
+        <f t="shared" ref="P81:P89" si="52">IF(H81&lt;I81,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" ref="Q81:Q89" si="53">(E81-N81)^2</f>
+        <v>0.16689259447137156</v>
+      </c>
+      <c r="R81">
+        <f t="shared" ref="R81:R89" si="54">((E81+F81)-(N81+O81))^2+Q81</f>
+        <v>0.64003398679278112</v>
+      </c>
+      <c r="S81">
+        <f t="shared" ref="S81:S89" si="55">((E81+F81+G81)-(N81+O81+P81))^2+R81</f>
+        <v>0.64003398679278201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
+        <v>15</v>
+      </c>
+      <c r="B82" s="4">
+        <v>45073</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82">
+        <v>0.55072367191314697</v>
+      </c>
+      <c r="F82">
+        <v>0.24377046525478399</v>
+      </c>
+      <c r="G82">
+        <v>0.20550580322742501</v>
+      </c>
+      <c r="H82">
+        <v>3</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="49"/>
+        <v>0.12204093931878117</v>
+      </c>
+      <c r="N82" s="2">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O82" s="2">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P82" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="53"/>
+        <v>0.2018492189792056</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="54"/>
+        <v>0.24408187863755879</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="55"/>
+        <v>0.24408187863756234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
+        <v>15</v>
+      </c>
+      <c r="B83" s="4">
+        <v>45073</v>
+      </c>
+      <c r="C83" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83">
+        <v>0.56905978918075595</v>
+      </c>
+      <c r="F83">
+        <v>0.22101710736751601</v>
+      </c>
+      <c r="G83">
+        <v>0.20992305874824499</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="49"/>
+        <v>0.11488858733187071</v>
+      </c>
+      <c r="N83" s="2">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O83" s="2">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P83" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="53"/>
+        <v>0.18570946530093452</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="54"/>
+        <v>0.22977717466373943</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="55"/>
+        <v>0.22977717466374142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
+        <v>15</v>
+      </c>
+      <c r="B84" s="4">
+        <v>45073</v>
+      </c>
+      <c r="C84" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84">
+        <v>0.25369581580161998</v>
+      </c>
+      <c r="F84">
+        <v>0.309596657752991</v>
+      </c>
+      <c r="G84">
+        <v>0.43670749664306602</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="49"/>
+        <v>0.12753751530465027</v>
+      </c>
+      <c r="N84" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O84" s="2">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="P84" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="53"/>
+        <v>6.43615669552495E-2</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="54"/>
+        <v>0.25507503060929965</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="55"/>
+        <v>0.25507503060930053</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
+        <v>15</v>
+      </c>
+      <c r="B85" s="4">
+        <v>45073</v>
+      </c>
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85">
+        <v>0.47220057249069203</v>
+      </c>
+      <c r="F85">
+        <v>0.24721893668174699</v>
+      </c>
+      <c r="G85">
+        <v>0.28058055043220498</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="49"/>
+        <v>0.37026890541922697</v>
+      </c>
+      <c r="N85" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O85" s="2">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P85" s="2">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="53"/>
+        <v>0.22297338066053729</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="54"/>
+        <v>0.74053781083845038</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="55"/>
+        <v>0.74053781083845394</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
+        <v>15</v>
+      </c>
+      <c r="B86" s="4">
+        <v>45074</v>
+      </c>
+      <c r="C86" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86">
+        <v>0.63398104906082198</v>
+      </c>
+      <c r="F86">
+        <v>0.20435716211795801</v>
+      </c>
+      <c r="G86">
+        <v>0.16166177392005901</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="49"/>
+        <v>8.0052203205746672E-2</v>
+      </c>
+      <c r="N86" s="2">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O86" s="2">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P86" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="53"/>
+        <v>0.1339698724466164</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="54"/>
+        <v>0.16010440641149312</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="55"/>
+        <v>0.16010440641149334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
+        <v>15</v>
+      </c>
+      <c r="B87" s="4">
+        <v>45074</v>
+      </c>
+      <c r="C87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87">
+        <v>0.73514652252197299</v>
+      </c>
+      <c r="F87">
+        <v>0.15108303725719499</v>
+      </c>
+      <c r="G87">
+        <v>0.11377038061618799</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="49"/>
+        <v>4.1545538800124612E-2</v>
+      </c>
+      <c r="N87" s="2">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O87" s="2">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P87" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="53"/>
+        <v>7.0147364532203757E-2</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="54"/>
+        <v>8.3091077600245672E-2</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="55"/>
+        <v>8.3091077600249225E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
+        <v>15</v>
+      </c>
+      <c r="B88" s="4">
+        <v>45074</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88">
+        <v>0.57375466823577903</v>
+      </c>
+      <c r="F88">
+        <v>0.223043367266655</v>
+      </c>
+      <c r="G88">
+        <v>0.203201979398727</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>3</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="49"/>
+        <v>0.48204076435144361</v>
+      </c>
+      <c r="N88" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O88" s="2">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P88" s="2">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="53"/>
+        <v>0.32919441932234889</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="54"/>
+        <v>0.96408152870288699</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="55"/>
+        <v>0.96408152870288721</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A89" s="6">
+        <v>15</v>
+      </c>
+      <c r="B89" s="4">
+        <v>45074</v>
+      </c>
+      <c r="C89" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89">
+        <v>0.63826304674148604</v>
+      </c>
+      <c r="F89">
+        <v>0.187665045261383</v>
+      </c>
+      <c r="G89">
+        <v>0.17407192289829301</v>
+      </c>
+      <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="49"/>
+        <v>8.0577326253257059E-2</v>
+      </c>
+      <c r="N89" s="2">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O89" s="2">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P89" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="53"/>
+        <v>0.1308536233527523</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="54"/>
+        <v>0.1611546525065139</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="55"/>
+        <v>0.16115465250651412</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A90" s="6">
+        <v>10</v>
+      </c>
+      <c r="B90" s="4">
+        <v>45077</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90">
+        <v>0.51199734210967995</v>
+      </c>
+      <c r="F90">
+        <v>0.19612523913383501</v>
+      </c>
+      <c r="G90">
+        <v>0.29187744855880698</v>
+      </c>
+      <c r="K90" s="9"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
-      <c r="N90" s="9"/>
+      <c r="N90" s="8"/>
       <c r="O90" s="7"/>
     </row>
-    <row r="91" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="7"/>
-      <c r="K91" s="10"/>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
+        <v>16</v>
+      </c>
+      <c r="B91" s="4">
+        <v>45080</v>
+      </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91">
+        <v>0.33639067411422702</v>
+      </c>
+      <c r="F91">
+        <v>0.24968329071998599</v>
+      </c>
+      <c r="G91">
+        <v>0.41392606496810902</v>
+      </c>
+      <c r="K91" s="9"/>
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
-      <c r="N91" s="9"/>
+      <c r="N91" s="8"/>
       <c r="O91" s="7"/>
     </row>
-    <row r="92" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="7"/>
-      <c r="K92" s="10"/>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
+        <v>16</v>
+      </c>
+      <c r="B92" s="4">
+        <v>45080</v>
+      </c>
+      <c r="C92" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92">
+        <v>0.29893526434898399</v>
+      </c>
+      <c r="F92">
+        <v>0.286533713340759</v>
+      </c>
+      <c r="G92">
+        <v>0.41453102231025701</v>
+      </c>
+      <c r="K92" s="9"/>
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
-      <c r="N92" s="9"/>
+      <c r="N92" s="8"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
+        <v>16</v>
+      </c>
+      <c r="B93" s="4">
+        <v>45080</v>
+      </c>
+      <c r="C93" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93">
+        <v>0.36402043700218201</v>
+      </c>
+      <c r="F93">
+        <v>0.229162722826004</v>
+      </c>
+      <c r="G93">
+        <v>0.40681684017181402</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A94" s="6">
+        <v>16</v>
+      </c>
+      <c r="B94" s="4">
+        <v>45080</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94">
+        <v>0.49129807949066201</v>
+      </c>
+      <c r="F94">
+        <v>0.25527745485305797</v>
+      </c>
+      <c r="G94">
+        <v>0.25342455506324801</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A95" s="6">
+        <v>16</v>
+      </c>
+      <c r="B95" s="4">
+        <v>45080</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95">
+        <v>0.51669365167617798</v>
+      </c>
+      <c r="F95">
+        <v>0.27376306056976302</v>
+      </c>
+      <c r="G95">
+        <v>0.20954330265522</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
+        <v>16</v>
+      </c>
+      <c r="B96" s="4">
+        <v>45080</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96">
+        <v>0.36336469650268599</v>
+      </c>
+      <c r="F96">
+        <v>0.325544863939285</v>
+      </c>
+      <c r="G96">
+        <v>0.31109043955802901</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="6">
+        <v>16</v>
+      </c>
+      <c r="B97" s="4">
+        <v>45080</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97">
+        <v>0.38384553790092502</v>
+      </c>
+      <c r="F97">
+        <v>0.30718669295311002</v>
+      </c>
+      <c r="G97">
+        <v>0.30896782875061002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
+        <v>16</v>
+      </c>
+      <c r="B98" s="4">
+        <v>45081</v>
+      </c>
+      <c r="C98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98">
+        <v>0.64954501390457198</v>
+      </c>
+      <c r="F98">
+        <v>0.21889053285121901</v>
+      </c>
+      <c r="G98">
+        <v>0.13156446814537001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
+        <v>16</v>
+      </c>
+      <c r="B99" s="4">
+        <v>45081</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99">
+        <v>0.60714524984359697</v>
+      </c>
+      <c r="F99">
+        <v>0.200854107737541</v>
+      </c>
+      <c r="G99">
+        <v>0.192000657320023</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RPS_J1_yoosh.xlsx
+++ b/RPS_J1_yoosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/machub/CodeDir/jleague/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D44E5DB-EF8D-6142-B442-DC0A48BB4F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D628337E-AD9D-A14D-840D-26C82CA8EC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="2400" windowWidth="27640" windowHeight="16940" xr2:uid="{5DA62EE6-12B6-4E4B-9305-85ED27E920C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -168,12 +168,10 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <sz val="9.4"/>
+      <color rgb="FF525456"/>
+      <name val="Verdana"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,11 +191,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -208,11 +205,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -525,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1971016B-5400-8E4D-AE04-8B5B560ADD6B}">
-  <dimension ref="A1:S99"/>
+  <dimension ref="A1:S112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -602,8 +597,8 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2">
-        <f>AVERAGE(J2:J1000)</f>
-        <v>0.2288382003816497</v>
+        <f>AVERAGE(J2:J999)</f>
+        <v>0.22853785652834224</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
@@ -5534,11 +5529,40 @@
       <c r="G90">
         <v>0.29187744855880698</v>
       </c>
-      <c r="K90" s="9"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="7"/>
+      <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <f t="shared" ref="J90:J98" si="56">S90*(1/2)</f>
+        <v>0.16166951084398307</v>
+      </c>
+      <c r="N90" s="2">
+        <f t="shared" ref="N90:N98" si="57">IF(H90&gt;I90,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O90" s="2">
+        <f t="shared" ref="O90:O98" si="58">IF(H90=I90,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P90" s="2">
+        <f t="shared" ref="P90:P98" si="59">IF(H90&lt;I90,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" ref="Q90:Q98" si="60">(E90-N90)^2</f>
+        <v>0.23814659410801675</v>
+      </c>
+      <c r="R90">
+        <f t="shared" ref="R90:R98" si="61">((E90+F90)-(N90+O90))^2+Q90</f>
+        <v>0.32333902168796524</v>
+      </c>
+      <c r="S90">
+        <f t="shared" ref="S90:S98" si="62">((E90+F90+G90)-(N90+O90+P90))^2+R90</f>
+        <v>0.32333902168796613</v>
+      </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
@@ -5548,25 +5572,54 @@
         <v>45080</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D91" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E91">
-        <v>0.33639067411422702</v>
+        <v>0.29893526434898399</v>
       </c>
       <c r="F91">
-        <v>0.24968329071998599</v>
+        <v>0.286533713340759</v>
       </c>
       <c r="G91">
-        <v>0.41392606496810902</v>
-      </c>
-      <c r="K91" s="9"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="7"/>
+        <v>0.41453102231025701</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="56"/>
+        <v>0.13059913036449183</v>
+      </c>
+      <c r="N91" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="O91" s="2">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="P91" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="60"/>
+        <v>8.9362292271396943E-2</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="61"/>
+        <v>0.26119826072898367</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="62"/>
+        <v>0.26119826072898367</v>
+      </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
@@ -5576,24 +5629,54 @@
         <v>45080</v>
       </c>
       <c r="C92" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E92">
-        <v>0.29893526434898399</v>
+        <v>0.36402043700218201</v>
       </c>
       <c r="F92">
-        <v>0.286533713340759</v>
+        <v>0.229162722826004</v>
       </c>
       <c r="G92">
-        <v>0.41453102231025701</v>
-      </c>
-      <c r="K92" s="9"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="8"/>
+        <v>0.40681684017181402</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="56"/>
+        <v>0.24218856982950543</v>
+      </c>
+      <c r="N92" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="O92" s="2">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="P92" s="2">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="60"/>
+        <v>0.13251087855525956</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="61"/>
+        <v>0.48437713965901086</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="62"/>
+        <v>0.48437713965901086</v>
+      </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
@@ -5603,19 +5686,53 @@
         <v>45080</v>
       </c>
       <c r="C93" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E93">
-        <v>0.36402043700218201</v>
+        <v>0.49129807949066201</v>
       </c>
       <c r="F93">
-        <v>0.229162722826004</v>
+        <v>0.25527745485305797</v>
       </c>
       <c r="G93">
-        <v>0.40681684017181402</v>
+        <v>0.25342455506324801</v>
+      </c>
+      <c r="H93">
+        <v>3</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="56"/>
+        <v>0.16150080186153393</v>
+      </c>
+      <c r="N93" s="2">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="O93" s="2">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="P93" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="60"/>
+        <v>0.25877764392988878</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="61"/>
+        <v>0.32300160372305986</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="62"/>
+        <v>0.32300160372306785</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
@@ -5626,19 +5743,53 @@
         <v>45080</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E94">
-        <v>0.49129807949066201</v>
+        <v>0.51669365167617798</v>
       </c>
       <c r="F94">
-        <v>0.25527745485305797</v>
+        <v>0.27376306056976302</v>
       </c>
       <c r="G94">
-        <v>0.25342455506324801</v>
+        <v>0.20954330265522</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="56"/>
+        <v>0.44589707180856303</v>
+      </c>
+      <c r="N94" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="O94" s="2">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="P94" s="2">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="60"/>
+        <v>0.26697232968246354</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="61"/>
+        <v>0.89179414361712583</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="62"/>
+        <v>0.89179414361712606</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
@@ -5649,19 +5800,53 @@
         <v>45080</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E95">
-        <v>0.51669365167617798</v>
+        <v>0.36336469650268599</v>
       </c>
       <c r="F95">
-        <v>0.27376306056976302</v>
+        <v>0.325544863939285</v>
       </c>
       <c r="G95">
-        <v>0.20954330265522</v>
+        <v>0.31109043955802901</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="56"/>
+        <v>0.30331514256641945</v>
+      </c>
+      <c r="N95" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="O95" s="2">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="P95" s="2">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="60"/>
+        <v>0.13203390266448911</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="61"/>
+        <v>0.6066302851328389</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="62"/>
+        <v>0.6066302851328389</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
@@ -5672,45 +5857,113 @@
         <v>45080</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E96">
-        <v>0.36336469650268599</v>
+        <v>0.38384553790092502</v>
       </c>
       <c r="F96">
-        <v>0.325544863939285</v>
+        <v>0.30718669295311002</v>
       </c>
       <c r="G96">
-        <v>0.31109043955802901</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.30896782875061002</v>
+      </c>
+      <c r="H96">
+        <v>4</v>
+      </c>
+      <c r="I96">
+        <v>5</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="56"/>
+        <v>0.31243147052277925</v>
+      </c>
+      <c r="N96" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="O96" s="2">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="P96" s="2">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="60"/>
+        <v>0.14733739696645046</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="61"/>
+        <v>0.62486294104555495</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="62"/>
+        <v>0.62486294104555851</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>16</v>
       </c>
       <c r="B97" s="4">
-        <v>45080</v>
+        <v>45081</v>
       </c>
       <c r="C97" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E97">
-        <v>0.38384553790092502</v>
+        <v>0.64954501390457198</v>
       </c>
       <c r="F97">
-        <v>0.30718669295311002</v>
+        <v>0.21889053285121901</v>
       </c>
       <c r="G97">
-        <v>0.30896782875061002</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.13156446814537001</v>
+      </c>
+      <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="56"/>
+        <v>7.0063951318297277E-2</v>
+      </c>
+      <c r="N97" s="2">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="O97" s="2">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="P97" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="60"/>
+        <v>0.12281869727914665</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="61"/>
+        <v>0.14012790263659433</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="62"/>
+        <v>0.14012790263659455</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>16</v>
       </c>
@@ -5718,43 +5971,323 @@
         <v>45081</v>
       </c>
       <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98">
+        <v>0.60714524984359697</v>
+      </c>
+      <c r="F98">
+        <v>0.200854107737541</v>
+      </c>
+      <c r="G98">
+        <v>0.192000657320023</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="56"/>
+        <v>0.20274480054844987</v>
+      </c>
+      <c r="N98" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="O98" s="2">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="P98" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="60"/>
+        <v>0.36862535440764377</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="61"/>
+        <v>0.40548960109689952</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="62"/>
+        <v>0.40548960109689974</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
+        <v>17</v>
+      </c>
+      <c r="B99" s="4">
+        <v>45087</v>
+      </c>
+      <c r="C99" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99">
+        <v>0.75083339214324996</v>
+      </c>
+      <c r="F99">
+        <v>0.14674550294876099</v>
+      </c>
+      <c r="G99">
+        <v>0.102421127259731</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
+        <v>17</v>
+      </c>
+      <c r="B100" s="4">
+        <v>45087</v>
+      </c>
+      <c r="C100" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100">
+        <v>0.32166057825088501</v>
+      </c>
+      <c r="F100">
+        <v>0.22399264574050901</v>
+      </c>
+      <c r="G100">
+        <v>0.45434680581092801</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
+        <v>17</v>
+      </c>
+      <c r="B101" s="4">
+        <v>45087</v>
+      </c>
+      <c r="C101" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101">
+        <v>0.37884289026260398</v>
+      </c>
+      <c r="F101">
+        <v>0.31681102514267001</v>
+      </c>
+      <c r="G101">
+        <v>0.30434611439704901</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
+        <v>17</v>
+      </c>
+      <c r="B102" s="4">
+        <v>45088</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102">
+        <v>0.54646855592727706</v>
+      </c>
+      <c r="F102">
+        <v>0.26246422529220598</v>
+      </c>
+      <c r="G102">
+        <v>0.19106721878051799</v>
+      </c>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="N102" s="7"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
+        <v>17</v>
+      </c>
+      <c r="B103" s="4">
+        <v>45088</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103">
+        <v>0.44729042053222701</v>
+      </c>
+      <c r="F103">
+        <v>0.30889096856117199</v>
+      </c>
+      <c r="G103">
+        <v>0.24381861090660101</v>
+      </c>
+      <c r="H103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="8"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
+        <v>17</v>
+      </c>
+      <c r="B104" s="4">
+        <v>45088</v>
+      </c>
+      <c r="C104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104">
+        <v>0.46676722168922402</v>
+      </c>
+      <c r="F104">
+        <v>0.26453316211700401</v>
+      </c>
+      <c r="G104">
+        <v>0.26869958639144897</v>
+      </c>
+      <c r="H104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
+        <v>17</v>
+      </c>
+      <c r="B105" s="4">
+        <v>45088</v>
+      </c>
+      <c r="C105" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" t="s">
+        <v>23</v>
+      </c>
+      <c r="E105">
+        <v>0.34809988737106301</v>
+      </c>
+      <c r="F105">
+        <v>0.36075639724731401</v>
+      </c>
+      <c r="G105">
+        <v>0.29114368557929998</v>
+      </c>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="N105" s="7"/>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
+        <v>17</v>
+      </c>
+      <c r="B106" s="4">
+        <v>45088</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106">
+        <v>0.28393852710723899</v>
+      </c>
+      <c r="F106">
+        <v>0.24692696332931499</v>
+      </c>
+      <c r="G106">
+        <v>0.46913444995880099</v>
+      </c>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+      <c r="N106" s="7"/>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
+        <v>17</v>
+      </c>
+      <c r="B107" s="4">
+        <v>45088</v>
+      </c>
+      <c r="C107" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" t="s">
         <v>19</v>
       </c>
-      <c r="D98" t="s">
-        <v>16</v>
-      </c>
-      <c r="E98">
-        <v>0.64954501390457198</v>
-      </c>
-      <c r="F98">
-        <v>0.21889053285121901</v>
-      </c>
-      <c r="G98">
-        <v>0.13156446814537001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="6">
-        <v>16</v>
-      </c>
-      <c r="B99" s="4">
-        <v>45081</v>
-      </c>
-      <c r="C99" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s">
-        <v>18</v>
-      </c>
-      <c r="E99">
-        <v>0.60714524984359697</v>
-      </c>
-      <c r="F99">
-        <v>0.200854107737541</v>
-      </c>
-      <c r="G99">
-        <v>0.192000657320023</v>
-      </c>
+      <c r="E107">
+        <v>0.57750254869461104</v>
+      </c>
+      <c r="F107">
+        <v>0.19924564659595501</v>
+      </c>
+      <c r="G107">
+        <v>0.22325178980827301</v>
+      </c>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="N107" s="7"/>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="N108" s="7"/>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="N109" s="7"/>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="N110" s="7"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="N111" s="7"/>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RPS_J1_yoosh.xlsx
+++ b/RPS_J1_yoosh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/machub/CodeDir/jleague/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D628337E-AD9D-A14D-840D-26C82CA8EC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741935D1-E792-CA4B-A48B-35A57B1E250A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="2400" windowWidth="27640" windowHeight="16940" xr2:uid="{5DA62EE6-12B6-4E4B-9305-85ED27E920C9}"/>
+    <workbookView xWindow="0" yWindow="920" windowWidth="27640" windowHeight="16940" xr2:uid="{5DA62EE6-12B6-4E4B-9305-85ED27E920C9}"/>
   </bookViews>
   <sheets>
     <sheet name="ME J1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -126,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,12 +167,6 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9.4"/>
-      <color rgb="FF525456"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -205,7 +199,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1971016B-5400-8E4D-AE04-8B5B560ADD6B}">
-  <dimension ref="A1:S112"/>
+  <dimension ref="A1:S138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,7 +592,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2">
         <f>AVERAGE(J2:J999)</f>
-        <v>0.22853785652834224</v>
+        <v>0.22302231472396636</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
@@ -6042,6 +6036,40 @@
       <c r="G99">
         <v>0.102421127259731</v>
       </c>
+      <c r="H99">
+        <v>4</v>
+      </c>
+      <c r="I99">
+        <v>3</v>
+      </c>
+      <c r="J99">
+        <f t="shared" ref="J99:J108" si="63">S99*(1/2)</f>
+        <v>3.628704060070663E-2</v>
+      </c>
+      <c r="N99" s="2">
+        <f t="shared" ref="N99:N108" si="64">IF(H99&gt;I99,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O99" s="2">
+        <f t="shared" ref="O99:O108" si="65">IF(H99=I99,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P99" s="2">
+        <f t="shared" ref="P99:P108" si="66">IF(H99&lt;I99,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" ref="Q99:Q108" si="67">(E99-N99)^2</f>
+        <v>6.2083998470839452E-2</v>
+      </c>
+      <c r="R99">
+        <f t="shared" ref="R99:R108" si="68">((E99+F99)-(N99+O99))^2+Q99</f>
+        <v>7.257408120141276E-2</v>
+      </c>
+      <c r="S99">
+        <f t="shared" ref="S99:S108" si="69">((E99+F99+G99)-(N99+O99+P99))^2+R99</f>
+        <v>7.257408120141326E-2</v>
+      </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
@@ -6065,6 +6093,40 @@
       <c r="G100">
         <v>0.45434680581092801</v>
       </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="63"/>
+        <v>0.33328768198416947</v>
+      </c>
+      <c r="N100" s="2">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="O100" s="2">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="P100" s="2">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="67"/>
+        <v>0.4601443710989237</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="68"/>
+        <v>0.66657536396833805</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="69"/>
+        <v>0.66657536396833894</v>
+      </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
@@ -6088,6 +6150,40 @@
       <c r="G101">
         <v>0.30434611439704901</v>
       </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="63"/>
+        <v>0.11807423735533221</v>
+      </c>
+      <c r="N101" s="2">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="O101" s="2">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="P101" s="2">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="67"/>
+        <v>0.1435219355025234</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="68"/>
+        <v>0.23614847471066353</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="69"/>
+        <v>0.23614847471066441</v>
+      </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
@@ -6111,9 +6207,40 @@
       <c r="G102">
         <v>0.19106721878051799</v>
       </c>
-      <c r="K102" s="7"/>
-      <c r="L102" s="7"/>
-      <c r="N102" s="7"/>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>3</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="63"/>
+        <v>0.47650006357436581</v>
+      </c>
+      <c r="N102" s="2">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="O102" s="2">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="P102" s="2">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="67"/>
+        <v>0.29862788261724355</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="68"/>
+        <v>0.95300012714873161</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="69"/>
+        <v>0.95300012714873161</v>
+      </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
@@ -6137,12 +6264,40 @@
       <c r="G103">
         <v>0.24381861090660101</v>
       </c>
-      <c r="H103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="8"/>
-      <c r="L103" s="8"/>
-      <c r="M103" s="8"/>
-      <c r="N103" s="8"/>
+      <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="63"/>
+        <v>0.18246769712993346</v>
+      </c>
+      <c r="N103" s="2">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="O103" s="2">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="P103" s="2">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="67"/>
+        <v>0.30548787923544246</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="68"/>
+        <v>0.36493539425986693</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="69"/>
+        <v>0.36493539425986693</v>
+      </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
@@ -6166,11 +6321,40 @@
       <c r="G104">
         <v>0.26869958639144897</v>
       </c>
-      <c r="H104" s="7"/>
-      <c r="K104" s="7"/>
-      <c r="L104" s="7"/>
-      <c r="M104" s="7"/>
-      <c r="N104" s="7"/>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="63"/>
+        <v>0.1782683398038552</v>
+      </c>
+      <c r="N104" s="2">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="O104" s="2">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="P104" s="2">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="67"/>
+        <v>0.28433719586502915</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="68"/>
+        <v>0.35653667960770952</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="69"/>
+        <v>0.35653667960771041</v>
+      </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
@@ -6194,9 +6378,40 @@
       <c r="G105">
         <v>0.29114368557929998</v>
       </c>
-      <c r="K105" s="7"/>
-      <c r="L105" s="7"/>
-      <c r="N105" s="7"/>
+      <c r="H105">
+        <v>3</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="63"/>
+        <v>0.25486920992591855</v>
+      </c>
+      <c r="N105" s="2">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="O105" s="2">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="P105" s="2">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="67"/>
+        <v>0.42497375684562072</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="68"/>
+        <v>0.50973841985183621</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="69"/>
+        <v>0.5097384198518371</v>
+      </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
@@ -6220,9 +6435,40 @@
       <c r="G106">
         <v>0.46913444995880099</v>
       </c>
-      <c r="K106" s="7"/>
-      <c r="L106" s="7"/>
-      <c r="N106" s="7"/>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="63"/>
+        <v>0.15035413761958344</v>
+      </c>
+      <c r="N106" s="2">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="O106" s="2">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="P106" s="2">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="67"/>
+        <v>8.062108717582829E-2</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="68"/>
+        <v>0.30070827523916333</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="69"/>
+        <v>0.30070827523916688</v>
+      </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
@@ -6246,48 +6492,1426 @@
       <c r="G107">
         <v>0.22325178980827301</v>
       </c>
-      <c r="K107" s="7"/>
-      <c r="L107" s="7"/>
-      <c r="N107" s="7"/>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="63"/>
+        <v>0.11417273233278448</v>
+      </c>
+      <c r="N107" s="2">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="O107" s="2">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="P107" s="2">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="67"/>
+        <v>0.1785040963595495</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="68"/>
+        <v>0.22834546466556874</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="69"/>
+        <v>0.22834546466556896</v>
+      </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="F108" s="7"/>
+      <c r="A108" s="6">
+        <v>18</v>
+      </c>
+      <c r="B108" s="4">
+        <v>45101</v>
+      </c>
+      <c r="C108" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108">
+        <v>0.39318501949310303</v>
+      </c>
+      <c r="F108">
+        <v>0.25780487060546903</v>
+      </c>
+      <c r="G108">
+        <v>0.349010139703751</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>4</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="63"/>
+        <v>0.28919114828217174</v>
+      </c>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
-      <c r="N108" s="7"/>
+      <c r="N108" s="7">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="O108" s="2">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="P108" s="2">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="67"/>
+        <v>0.15459445955379181</v>
+      </c>
+      <c r="R108">
+        <f t="shared" si="68"/>
+        <v>0.57838229656434259</v>
+      </c>
+      <c r="S108">
+        <f t="shared" si="69"/>
+        <v>0.57838229656434348</v>
+      </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="F109" s="7"/>
+      <c r="A109" s="6">
+        <v>18</v>
+      </c>
+      <c r="B109" s="4">
+        <v>45101</v>
+      </c>
+      <c r="C109" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" t="s">
+        <v>25</v>
+      </c>
+      <c r="E109">
+        <v>0.46130761504173301</v>
+      </c>
+      <c r="F109">
+        <v>0.219643339514732</v>
+      </c>
+      <c r="G109">
+        <v>0.31904906034469599</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <f t="shared" ref="J109:J117" si="70">S109*(1/2)</f>
+        <v>0.33824945910342641</v>
+      </c>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
-      <c r="N109" s="7"/>
+      <c r="N109" s="7">
+        <f t="shared" ref="N109:N117" si="71">IF(H109&gt;I109,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O109" s="2">
+        <f t="shared" ref="O109:O117" si="72">IF(H109=I109,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P109" s="2">
+        <f t="shared" ref="P109:P117" si="73">IF(H109&lt;I109,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" ref="Q109:Q117" si="74">(E109-N109)^2</f>
+        <v>0.21280471569549173</v>
+      </c>
+      <c r="R109">
+        <f t="shared" ref="R109:R117" si="75">((E109+F109)-(N109+O109))^2+Q109</f>
+        <v>0.6764989182068526</v>
+      </c>
+      <c r="S109">
+        <f t="shared" ref="S109:S117" si="76">((E109+F109+G109)-(N109+O109+P109))^2+R109</f>
+        <v>0.67649891820685282</v>
+      </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="F110" s="7"/>
+      <c r="A110" s="6">
+        <v>18</v>
+      </c>
+      <c r="B110" s="4">
+        <v>45101</v>
+      </c>
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110">
+        <v>0.40396609902381903</v>
+      </c>
+      <c r="F110">
+        <v>0.29614174365997298</v>
+      </c>
+      <c r="G110">
+        <v>0.299892157316208</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="70"/>
+        <v>0.1265619575901456</v>
+      </c>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
-      <c r="N110" s="7"/>
+      <c r="N110" s="7">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="O110" s="2">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+      <c r="P110" s="2">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="74"/>
+        <v>0.16318860916052197</v>
+      </c>
+      <c r="R110">
+        <f t="shared" si="75"/>
+        <v>0.2531239151802912</v>
+      </c>
+      <c r="S110">
+        <f t="shared" si="76"/>
+        <v>0.2531239151802912</v>
+      </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="F111" s="7"/>
+      <c r="A111" s="6">
+        <v>18</v>
+      </c>
+      <c r="B111" s="4">
+        <v>45101</v>
+      </c>
+      <c r="C111" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111">
+        <v>0.30032110214233398</v>
+      </c>
+      <c r="F111">
+        <v>0.28811600804328902</v>
+      </c>
+      <c r="G111">
+        <v>0.411562919616699</v>
+      </c>
+      <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="70"/>
+        <v>0.32946728618984011</v>
+      </c>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
-      <c r="N111" s="7"/>
+      <c r="N111" s="7">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="O111" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="P111" s="2">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="74"/>
+        <v>0.48955056010731823</v>
+      </c>
+      <c r="R111">
+        <f t="shared" si="75"/>
+        <v>0.65893457237967934</v>
+      </c>
+      <c r="S111">
+        <f t="shared" si="76"/>
+        <v>0.65893457237968023</v>
+      </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="F112" s="7"/>
+      <c r="A112" s="6">
+        <v>18</v>
+      </c>
+      <c r="B112" s="4">
+        <v>45101</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112">
+        <v>0.63622891902923595</v>
+      </c>
+      <c r="F112">
+        <v>0.232045993208885</v>
+      </c>
+      <c r="G112">
+        <v>0.131725028157234</v>
+      </c>
+      <c r="H112">
+        <v>2</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="70"/>
+        <v>7.4840449048258234E-2</v>
+      </c>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
+      <c r="N112" s="7">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="O112" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="P112" s="2">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="74"/>
+        <v>0.13232939935063817</v>
+      </c>
+      <c r="R112">
+        <f t="shared" si="75"/>
+        <v>0.14968089809651292</v>
+      </c>
+      <c r="S112">
+        <f t="shared" si="76"/>
+        <v>0.14968089809651647</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A113" s="6">
+        <v>18</v>
+      </c>
+      <c r="B113" s="4">
+        <v>45101</v>
+      </c>
+      <c r="C113" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113">
+        <v>0.364372968673706</v>
+      </c>
+      <c r="F113">
+        <v>0.303452968597412</v>
+      </c>
+      <c r="G113">
+        <v>0.332174032926559</v>
+      </c>
+      <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="70"/>
+        <v>0.25718066545124479</v>
+      </c>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+      <c r="N113" s="7">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="O113" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="P113" s="2">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="74"/>
+        <v>0.40402172295267746</v>
+      </c>
+      <c r="R113">
+        <f t="shared" si="75"/>
+        <v>0.5143613309024887</v>
+      </c>
+      <c r="S113">
+        <f t="shared" si="76"/>
+        <v>0.51436133090248959</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A114" s="6">
+        <v>18</v>
+      </c>
+      <c r="B114" s="4">
+        <v>45101</v>
+      </c>
+      <c r="C114" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114">
+        <v>0.37667623162269598</v>
+      </c>
+      <c r="F114">
+        <v>0.33161157369613598</v>
+      </c>
+      <c r="G114">
+        <v>0.29171222448348999</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>6</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="70"/>
+        <v>0.32177829931642166</v>
+      </c>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+      <c r="N114" s="7">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="O114" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="P114" s="2">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="74"/>
+        <v>0.14188498346947492</v>
+      </c>
+      <c r="R114">
+        <f t="shared" si="75"/>
+        <v>0.64355659863284242</v>
+      </c>
+      <c r="S114">
+        <f t="shared" si="76"/>
+        <v>0.64355659863284331</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A115" s="6">
+        <v>18</v>
+      </c>
+      <c r="B115" s="4">
+        <v>45101</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115">
+        <v>0.46052923798561102</v>
+      </c>
+      <c r="F115">
+        <v>0.20788733661174799</v>
+      </c>
+      <c r="G115">
+        <v>0.33158338069915799</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="70"/>
+        <v>0.16101737352067916</v>
+      </c>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
+      <c r="N115" s="7">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="O115" s="2">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+      <c r="P115" s="2">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="74"/>
+        <v>0.21208717903960755</v>
+      </c>
+      <c r="R115">
+        <f t="shared" si="75"/>
+        <v>0.32203474704135632</v>
+      </c>
+      <c r="S115">
+        <f t="shared" si="76"/>
+        <v>0.32203474704135832</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A116" s="6">
+        <v>18</v>
+      </c>
+      <c r="B116" s="4">
+        <v>45102</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116">
+        <v>0.29900380969047502</v>
+      </c>
+      <c r="F116">
+        <v>0.25544103980064398</v>
+      </c>
+      <c r="G116">
+        <v>0.44555512070655801</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>3</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="70"/>
+        <v>0.1984061846683241</v>
+      </c>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="N116" s="7">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="O116" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="P116" s="2">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="74"/>
+        <v>8.9403278209417805E-2</v>
+      </c>
+      <c r="R116">
+        <f t="shared" si="75"/>
+        <v>0.39681236933664732</v>
+      </c>
+      <c r="S116">
+        <f t="shared" si="76"/>
+        <v>0.39681236933664821</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A117" s="6">
+        <v>12</v>
+      </c>
+      <c r="B117" s="4">
+        <v>30</v>
+      </c>
+      <c r="C117" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F117">
+        <v>0.15</v>
+      </c>
+      <c r="G117" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H117">
+        <v>4</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="70"/>
+        <v>5.6250000000000015E-2</v>
+      </c>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
+      <c r="N117" s="7">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="O117" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="P117" s="2">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="74"/>
+        <v>9.0000000000000024E-2</v>
+      </c>
+      <c r="R117">
+        <f t="shared" si="75"/>
+        <v>0.11250000000000003</v>
+      </c>
+      <c r="S117">
+        <f t="shared" si="76"/>
+        <v>0.11250000000000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A118" s="6">
+        <v>19</v>
+      </c>
+      <c r="B118" s="4">
+        <v>45107</v>
+      </c>
+      <c r="C118" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118">
+        <v>0.33472830057144198</v>
+      </c>
+      <c r="F118">
+        <v>0.39728945493698098</v>
+      </c>
+      <c r="G118">
+        <v>0.26798221468925498</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <f t="shared" ref="J118:J126" si="77">S118*(1/2)</f>
+        <v>0.32394651479151787</v>
+      </c>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="N118" s="7">
+        <f t="shared" ref="N118:N126" si="78">IF(H118&gt;I118,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O118" s="2">
+        <f t="shared" ref="O118:O126" si="79">IF(H118=I118,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P118" s="2">
+        <f t="shared" ref="P118:P126" si="80">IF(H118&lt;I118,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" ref="Q118:Q126" si="81">(E118-N118)^2</f>
+        <v>0.11204303520344561</v>
+      </c>
+      <c r="R118">
+        <f t="shared" ref="R118:R126" si="82">((E118+F118)-(N118+O118))^2+Q118</f>
+        <v>0.64789302958303485</v>
+      </c>
+      <c r="S118">
+        <f t="shared" ref="S118:S126" si="83">((E118+F118+G118)-(N118+O118+P118))^2+R118</f>
+        <v>0.64789302958303574</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A119" s="6">
+        <v>19</v>
+      </c>
+      <c r="B119" s="4">
+        <v>45108</v>
+      </c>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" t="s">
+        <v>19</v>
+      </c>
+      <c r="E119">
+        <v>0.31522685289382901</v>
+      </c>
+      <c r="F119">
+        <v>0.26840820908546398</v>
+      </c>
+      <c r="G119">
+        <v>0.41636490821838401</v>
+      </c>
+      <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="77"/>
+        <v>0.32113701230533892</v>
+      </c>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
+      <c r="N119" s="7">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="O119" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P119" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" si="81"/>
+        <v>0.46891426299768968</v>
+      </c>
+      <c r="R119">
+        <f t="shared" si="82"/>
+        <v>0.64227402461067695</v>
+      </c>
+      <c r="S119">
+        <f t="shared" si="83"/>
+        <v>0.64227402461067784</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A120" s="6">
+        <v>19</v>
+      </c>
+      <c r="B120" s="4">
+        <v>45108</v>
+      </c>
+      <c r="C120" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" t="s">
+        <v>27</v>
+      </c>
+      <c r="E120">
+        <v>0.36101275682449302</v>
+      </c>
+      <c r="F120">
+        <v>0.25903666019439697</v>
+      </c>
+      <c r="G120">
+        <v>0.37995061278343201</v>
+      </c>
+      <c r="H120">
+        <v>2</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="77"/>
+        <v>0.27633357122436042</v>
+      </c>
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
+      <c r="N120" s="7">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="O120" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P120" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <f t="shared" si="81"/>
+        <v>0.40830469694103455</v>
+      </c>
+      <c r="R120">
+        <f t="shared" si="82"/>
+        <v>0.55266714244871995</v>
+      </c>
+      <c r="S120">
+        <f t="shared" si="83"/>
+        <v>0.55266714244872084</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A121" s="6">
+        <v>19</v>
+      </c>
+      <c r="B121" s="4">
+        <v>45108</v>
+      </c>
+      <c r="C121" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121">
+        <v>0.531169593334198</v>
+      </c>
+      <c r="F121">
+        <v>0.25652626156806901</v>
+      </c>
+      <c r="G121">
+        <v>0.21230418980121599</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="77"/>
+        <v>0.16360709345424926</v>
+      </c>
+      <c r="K121" s="7"/>
+      <c r="L121" s="7"/>
+      <c r="N121" s="7">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="O121" s="2">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="P121" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <f t="shared" si="81"/>
+        <v>0.28214113688281728</v>
+      </c>
+      <c r="R121">
+        <f t="shared" si="82"/>
+        <v>0.32721418690849652</v>
+      </c>
+      <c r="S121">
+        <f t="shared" si="83"/>
+        <v>0.32721418690849852</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A122" s="6">
+        <v>19</v>
+      </c>
+      <c r="B122" s="4">
+        <v>45108</v>
+      </c>
+      <c r="C122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122">
+        <v>0.36710491776466397</v>
+      </c>
+      <c r="F122">
+        <v>0.31366017460823098</v>
+      </c>
+      <c r="G122">
+        <v>0.31923487782478299</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="77"/>
+        <v>0.11833847344734394</v>
+      </c>
+      <c r="K122" s="7"/>
+      <c r="L122" s="7"/>
+      <c r="N122" s="7">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="O122" s="2">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="P122" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <f t="shared" si="81"/>
+        <v>0.13476602064700069</v>
+      </c>
+      <c r="R122">
+        <f t="shared" si="82"/>
+        <v>0.23667694689468699</v>
+      </c>
+      <c r="S122">
+        <f t="shared" si="83"/>
+        <v>0.23667694689468788</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A123" s="6">
+        <v>19</v>
+      </c>
+      <c r="B123" s="4">
+        <v>45108</v>
+      </c>
+      <c r="C123" t="s">
+        <v>23</v>
+      </c>
+      <c r="D123" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123">
+        <v>0.46752461791038502</v>
+      </c>
+      <c r="F123">
+        <v>0.24477843940258001</v>
+      </c>
+      <c r="G123">
+        <v>0.28769698739051802</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="77"/>
+        <v>0.18314978168147528</v>
+      </c>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
+      <c r="N123" s="7">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="O123" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P123" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" si="81"/>
+        <v>0.28353003253148146</v>
+      </c>
+      <c r="R123">
+        <f t="shared" si="82"/>
+        <v>0.36629956336294855</v>
+      </c>
+      <c r="S123">
+        <f t="shared" si="83"/>
+        <v>0.36629956336295055</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A124" s="6">
+        <v>19</v>
+      </c>
+      <c r="B124" s="4">
+        <v>45108</v>
+      </c>
+      <c r="C124" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" t="s">
+        <v>26</v>
+      </c>
+      <c r="E124">
+        <v>0.47238877415656999</v>
+      </c>
+      <c r="F124">
+        <v>0.25403895974159202</v>
+      </c>
+      <c r="G124">
+        <v>0.27357226610183699</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="77"/>
+        <v>0.14899646936462088</v>
+      </c>
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
+      <c r="N124" s="7">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="O124" s="2">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="P124" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" si="81"/>
+        <v>0.22315115394914689</v>
+      </c>
+      <c r="R124">
+        <f t="shared" si="82"/>
+        <v>0.29799293872924176</v>
+      </c>
+      <c r="S124">
+        <f t="shared" si="83"/>
+        <v>0.29799293872924176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A125" s="6">
+        <v>19</v>
+      </c>
+      <c r="B125" s="4">
+        <v>45108</v>
+      </c>
+      <c r="C125" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125">
+        <v>0.215223789215088</v>
+      </c>
+      <c r="F125">
+        <v>0.28639757633209201</v>
+      </c>
+      <c r="G125">
+        <v>0.49837866425514199</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="77"/>
+        <v>0.14897263690875953</v>
+      </c>
+      <c r="K125" s="7"/>
+      <c r="L125" s="7"/>
+      <c r="N125" s="7">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="O125" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P125" s="2">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="81"/>
+        <v>4.6321279444100631E-2</v>
+      </c>
+      <c r="R125">
+        <f t="shared" si="82"/>
+        <v>0.29794527381751817</v>
+      </c>
+      <c r="S125">
+        <f t="shared" si="83"/>
+        <v>0.29794527381751906</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A126" s="6">
+        <v>19</v>
+      </c>
+      <c r="B126" s="4">
+        <v>45109</v>
+      </c>
+      <c r="C126" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126">
+        <v>0.78112590312957797</v>
+      </c>
+      <c r="F126">
+        <v>0.129893139004707</v>
+      </c>
+      <c r="G126">
+        <v>8.8980942964553805E-2</v>
+      </c>
+      <c r="H126">
+        <v>4</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="77"/>
+        <v>2.7911740571771631E-2</v>
+      </c>
+      <c r="K126" s="7"/>
+      <c r="L126" s="7"/>
+      <c r="N126" s="7">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="O126" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P126" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" si="81"/>
+        <v>4.7905870280842887E-2</v>
+      </c>
+      <c r="R126">
+        <f t="shared" si="82"/>
+        <v>5.582348114354304E-2</v>
+      </c>
+      <c r="S126">
+        <f t="shared" si="83"/>
+        <v>5.5823481143543262E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A127" s="6">
+        <v>20</v>
+      </c>
+      <c r="B127" s="4">
+        <v>45114</v>
+      </c>
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127">
+        <v>0.36578574776649497</v>
+      </c>
+      <c r="F127">
+        <v>0.22931657731533001</v>
+      </c>
+      <c r="G127">
+        <v>0.40489766001701399</v>
+      </c>
+      <c r="K127" s="8"/>
+      <c r="L127" s="7"/>
+      <c r="M127" s="7"/>
+      <c r="O127" s="7"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A128" s="6">
+        <v>20</v>
+      </c>
+      <c r="B128" s="4">
+        <v>45115</v>
+      </c>
+      <c r="C128" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" t="s">
+        <v>25</v>
+      </c>
+      <c r="E128">
+        <v>0.39306592941284202</v>
+      </c>
+      <c r="F128">
+        <v>0.23125478625297499</v>
+      </c>
+      <c r="G128">
+        <v>0.37567928433418302</v>
+      </c>
+      <c r="K128" s="8"/>
+      <c r="L128" s="7"/>
+      <c r="M128" s="7"/>
+      <c r="O128" s="7"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A129" s="6">
+        <v>20</v>
+      </c>
+      <c r="B129" s="4">
+        <v>45115</v>
+      </c>
+      <c r="C129" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129">
+        <v>0.49263438582420299</v>
+      </c>
+      <c r="F129">
+        <v>0.24321454763412501</v>
+      </c>
+      <c r="G129">
+        <v>0.26415106654167197</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A130" s="6">
+        <v>20</v>
+      </c>
+      <c r="B130" s="4">
+        <v>45115</v>
+      </c>
+      <c r="C130" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s">
+        <v>23</v>
+      </c>
+      <c r="E130">
+        <v>0.67650181055069003</v>
+      </c>
+      <c r="F130">
+        <v>0.172533333301544</v>
+      </c>
+      <c r="G130">
+        <v>0.150964871048927</v>
+      </c>
+      <c r="K130" s="8"/>
+      <c r="L130" s="7"/>
+      <c r="M130" s="7"/>
+      <c r="O130" s="7"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A131" s="6">
+        <v>20</v>
+      </c>
+      <c r="B131" s="4">
+        <v>45115</v>
+      </c>
+      <c r="C131" t="s">
+        <v>21</v>
+      </c>
+      <c r="D131" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131">
+        <v>0.55058968067169201</v>
+      </c>
+      <c r="F131">
+        <v>0.21124993264675099</v>
+      </c>
+      <c r="G131">
+        <v>0.23816035687923401</v>
+      </c>
+      <c r="K131" s="8"/>
+      <c r="L131" s="7"/>
+      <c r="M131" s="7"/>
+      <c r="O131" s="7"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A132" s="6">
+        <v>20</v>
+      </c>
+      <c r="B132" s="4">
+        <v>45115</v>
+      </c>
+      <c r="C132" t="s">
+        <v>27</v>
+      </c>
+      <c r="D132" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132">
+        <v>0.67336493730545</v>
+      </c>
+      <c r="F132">
+        <v>0.22241587936878199</v>
+      </c>
+      <c r="G132">
+        <v>0.104219153523445</v>
+      </c>
+      <c r="K132" s="8"/>
+      <c r="L132" s="7"/>
+      <c r="M132" s="7"/>
+      <c r="O132" s="7"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A133" s="6">
+        <v>20</v>
+      </c>
+      <c r="B133" s="4">
+        <v>45115</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>26</v>
+      </c>
+      <c r="E133">
+        <v>0.408064484596252</v>
+      </c>
+      <c r="F133">
+        <v>0.26794347167015098</v>
+      </c>
+      <c r="G133">
+        <v>0.32399201393127403</v>
+      </c>
+      <c r="K133" s="8"/>
+      <c r="L133" s="7"/>
+      <c r="M133" s="7"/>
+      <c r="O133" s="7"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A134" s="6">
+        <v>20</v>
+      </c>
+      <c r="B134" s="4">
+        <v>45115</v>
+      </c>
+      <c r="C134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134">
+        <v>0.50723260641098</v>
+      </c>
+      <c r="F134">
+        <v>0.27985501289367698</v>
+      </c>
+      <c r="G134">
+        <v>0.21291242539882699</v>
+      </c>
+      <c r="K134" s="8"/>
+      <c r="L134" s="7"/>
+      <c r="M134" s="7"/>
+      <c r="O134" s="7"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A135" s="6">
+        <v>20</v>
+      </c>
+      <c r="B135" s="4">
+        <v>45115</v>
+      </c>
+      <c r="C135" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" t="s">
+        <v>24</v>
+      </c>
+      <c r="E135">
+        <v>0.24143886566162101</v>
+      </c>
+      <c r="F135">
+        <v>0.33380511403083801</v>
+      </c>
+      <c r="G135">
+        <v>0.424756079912186</v>
+      </c>
+      <c r="K135" s="8"/>
+      <c r="L135" s="7"/>
+      <c r="M135" s="7"/>
+      <c r="O135" s="7"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="7"/>
+      <c r="M136" s="7"/>
+      <c r="O136" s="7"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="K137" s="8"/>
+      <c r="L137" s="7"/>
+      <c r="M137" s="7"/>
+      <c r="O137" s="7"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="K138" s="8"/>
+      <c r="L138" s="7"/>
+      <c r="M138" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RPS_J1_yoosh.xlsx
+++ b/RPS_J1_yoosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/machub/CodeDir/jleague/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741935D1-E792-CA4B-A48B-35A57B1E250A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920A5375-BD2B-6546-AB2E-36A0A2605FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="920" windowWidth="27640" windowHeight="16940" xr2:uid="{5DA62EE6-12B6-4E4B-9305-85ED27E920C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -126,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,6 +167,19 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9.4"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.4"/>
+      <color rgb="FF525456"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -188,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -200,6 +213,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1971016B-5400-8E4D-AE04-8B5B560ADD6B}">
-  <dimension ref="A1:S138"/>
+  <dimension ref="A1:S163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E158" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -591,8 +606,8 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2">
-        <f>AVERAGE(J2:J999)</f>
-        <v>0.22302231472396636</v>
+        <f>AVERAGE(J2:J1000)</f>
+        <v>0.22110385749440453</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
@@ -7670,10 +7685,42 @@
       <c r="G127">
         <v>0.40489766001701399</v>
       </c>
-      <c r="K127" s="8"/>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <f t="shared" ref="J127:J145" si="84">S127*(1/2)</f>
+        <v>0.24397299529344413</v>
+      </c>
+      <c r="K127" s="7"/>
       <c r="L127" s="7"/>
-      <c r="M127" s="7"/>
-      <c r="O127" s="7"/>
+      <c r="N127" s="7">
+        <f t="shared" ref="N127:N145" si="85">IF(H127&gt;I127,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O127" s="2">
+        <f t="shared" ref="O127:O145" si="86">IF(H127=I127,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P127" s="2">
+        <f t="shared" ref="P127:P145" si="87">IF(H127&lt;I127,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" ref="Q127:Q145" si="88">(E127-N127)^2</f>
+        <v>0.13379921326909389</v>
+      </c>
+      <c r="R127">
+        <f t="shared" ref="R127:R145" si="89">((E127+F127)-(N127+O127))^2+Q127</f>
+        <v>0.48794599058688803</v>
+      </c>
+      <c r="S127">
+        <f t="shared" ref="S127:S145" si="90">((E127+F127+G127)-(N127+O127+P127))^2+R127</f>
+        <v>0.48794599058688826</v>
+      </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
@@ -7697,12 +7744,44 @@
       <c r="G128">
         <v>0.37567928433418302</v>
       </c>
-      <c r="K128" s="8"/>
+      <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="84"/>
+        <v>0.14781787477151259</v>
+      </c>
+      <c r="K128" s="7"/>
       <c r="L128" s="7"/>
-      <c r="M128" s="7"/>
-      <c r="O128" s="7"/>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N128" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="O128" s="2">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="P128" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <f t="shared" si="88"/>
+        <v>0.1545008248651813</v>
+      </c>
+      <c r="R128">
+        <f t="shared" si="89"/>
+        <v>0.29563574954302518</v>
+      </c>
+      <c r="S128">
+        <f t="shared" si="90"/>
+        <v>0.29563574954302518</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>20</v>
       </c>
@@ -7724,8 +7803,44 @@
       <c r="G129">
         <v>0.26415106654167197</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="84"/>
+        <v>0.15623221202574625</v>
+      </c>
+      <c r="K129" s="7"/>
+      <c r="L129" s="7"/>
+      <c r="N129" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="O129" s="2">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="P129" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <f t="shared" si="88"/>
+        <v>0.24268863809638969</v>
+      </c>
+      <c r="R129">
+        <f t="shared" si="89"/>
+        <v>0.3124644240514925</v>
+      </c>
+      <c r="S129">
+        <f t="shared" si="90"/>
+        <v>0.3124644240514925</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>20</v>
       </c>
@@ -7747,12 +7862,44 @@
       <c r="G130">
         <v>0.150964871048927</v>
       </c>
-      <c r="K130" s="8"/>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="84"/>
+        <v>0.24022254373503879</v>
+      </c>
+      <c r="K130" s="7"/>
       <c r="L130" s="7"/>
-      <c r="M130" s="7"/>
-      <c r="O130" s="7"/>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N130" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="O130" s="2">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="P130" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" si="88"/>
+        <v>0.4576546996783617</v>
+      </c>
+      <c r="R130">
+        <f t="shared" si="89"/>
+        <v>0.48044508747007736</v>
+      </c>
+      <c r="S130">
+        <f t="shared" si="90"/>
+        <v>0.48044508747007758</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>20</v>
       </c>
@@ -7774,12 +7921,44 @@
       <c r="G131">
         <v>0.23816035687923401</v>
       </c>
-      <c r="K131" s="8"/>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="84"/>
+        <v>0.12934500245154071</v>
+      </c>
+      <c r="K131" s="7"/>
       <c r="L131" s="7"/>
-      <c r="M131" s="7"/>
-      <c r="O131" s="7"/>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N131" s="7">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="O131" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P131" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <f t="shared" si="88"/>
+        <v>0.20196963511877175</v>
+      </c>
+      <c r="R131">
+        <f t="shared" si="89"/>
+        <v>0.25869000490308053</v>
+      </c>
+      <c r="S131">
+        <f t="shared" si="90"/>
+        <v>0.25869000490308142</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>20</v>
       </c>
@@ -7801,12 +7980,44 @@
       <c r="G132">
         <v>0.104219153523445</v>
       </c>
-      <c r="K132" s="8"/>
+      <c r="H132">
+        <v>3</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="84"/>
+        <v>5.8776051177281768E-2</v>
+      </c>
+      <c r="K132" s="7"/>
       <c r="L132" s="7"/>
-      <c r="M132" s="7"/>
-      <c r="O132" s="7"/>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N132" s="7">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="O132" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P132" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <f t="shared" si="88"/>
+        <v>0.10669046418147261</v>
+      </c>
+      <c r="R132">
+        <f t="shared" si="89"/>
+        <v>0.11755210235456265</v>
+      </c>
+      <c r="S132">
+        <f t="shared" si="90"/>
+        <v>0.11755210235456354</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>20</v>
       </c>
@@ -7828,12 +8039,44 @@
       <c r="G133">
         <v>0.32399201393127403</v>
       </c>
-      <c r="K133" s="8"/>
+      <c r="H133">
+        <v>2</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="84"/>
+        <v>0.22767924939948736</v>
+      </c>
+      <c r="K133" s="7"/>
       <c r="L133" s="7"/>
-      <c r="M133" s="7"/>
-      <c r="O133" s="7"/>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N133" s="7">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="O133" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P133" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <f t="shared" si="88"/>
+        <v>0.35038765439630076</v>
+      </c>
+      <c r="R133">
+        <f t="shared" si="89"/>
+        <v>0.45535849879897383</v>
+      </c>
+      <c r="S133">
+        <f t="shared" si="90"/>
+        <v>0.45535849879897472</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>20</v>
       </c>
@@ -7855,12 +8098,44 @@
       <c r="G134">
         <v>0.21291242539882699</v>
       </c>
-      <c r="K134" s="8"/>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="84"/>
+        <v>0.15130829942991841</v>
+      </c>
+      <c r="K134" s="7"/>
       <c r="L134" s="7"/>
-      <c r="M134" s="7"/>
-      <c r="O134" s="7"/>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N134" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="O134" s="2">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="P134" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <f t="shared" si="88"/>
+        <v>0.25728491700647615</v>
+      </c>
+      <c r="R134">
+        <f t="shared" si="89"/>
+        <v>0.30261659885983483</v>
+      </c>
+      <c r="S134">
+        <f t="shared" si="90"/>
+        <v>0.30261659885983683</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>20</v>
       </c>
@@ -7882,36 +8157,964 @@
       <c r="G135">
         <v>0.424756079912186</v>
       </c>
-      <c r="K135" s="8"/>
+      <c r="H135">
+        <v>2</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="84"/>
+        <v>0.37791633565811605</v>
+      </c>
+      <c r="K135" s="7"/>
       <c r="L135" s="7"/>
-      <c r="M135" s="7"/>
-      <c r="O135" s="7"/>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="K136" s="8"/>
+      <c r="N135" s="7">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="O135" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P135" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <f t="shared" si="88"/>
+        <v>0.57541499452872835</v>
+      </c>
+      <c r="R135">
+        <f t="shared" si="89"/>
+        <v>0.75583267131622855</v>
+      </c>
+      <c r="S135">
+        <f t="shared" si="90"/>
+        <v>0.75583267131623211</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A136" s="6">
+        <v>21</v>
+      </c>
+      <c r="B136" s="4">
+        <v>45122</v>
+      </c>
+      <c r="C136" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136">
+        <v>0.41010293364524802</v>
+      </c>
+      <c r="F136">
+        <v>0.240543112158775</v>
+      </c>
+      <c r="G136">
+        <v>0.34935390949249301</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="84"/>
+        <v>0.29576234655242578</v>
+      </c>
+      <c r="K136" s="7"/>
       <c r="L136" s="7"/>
-      <c r="M136" s="7"/>
-      <c r="O136" s="7"/>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="K137" s="8"/>
+      <c r="N136" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="O136" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P136" s="2">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="Q136">
+        <f t="shared" si="88"/>
+        <v>0.16818441618443872</v>
+      </c>
+      <c r="R136">
+        <f t="shared" si="89"/>
+        <v>0.59152469310484956</v>
+      </c>
+      <c r="S136">
+        <f t="shared" si="90"/>
+        <v>0.59152469310485156</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A137" s="6">
+        <v>21</v>
+      </c>
+      <c r="B137" s="4">
+        <v>45122</v>
+      </c>
+      <c r="C137" t="s">
+        <v>25</v>
+      </c>
+      <c r="D137" t="s">
+        <v>27</v>
+      </c>
+      <c r="E137">
+        <v>0.47797071933746299</v>
+      </c>
+      <c r="F137">
+        <v>0.203808099031448</v>
+      </c>
+      <c r="G137">
+        <v>0.31822115182876598</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="84"/>
+        <v>0.34663918286024059</v>
+      </c>
+      <c r="K137" s="7"/>
       <c r="L137" s="7"/>
-      <c r="M137" s="7"/>
-      <c r="O137" s="7"/>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="G138" s="7"/>
-      <c r="K138" s="8"/>
+      <c r="N137" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="O137" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P137" s="2">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="Q137">
+        <f t="shared" si="88"/>
+        <v>0.22845600854397183</v>
+      </c>
+      <c r="R137">
+        <f t="shared" si="89"/>
+        <v>0.69327836572048029</v>
+      </c>
+      <c r="S137">
+        <f t="shared" si="90"/>
+        <v>0.69327836572048118</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A138" s="6">
+        <v>21</v>
+      </c>
+      <c r="B138" s="4">
+        <v>45123</v>
+      </c>
+      <c r="C138" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138">
+        <v>0.51953601837158203</v>
+      </c>
+      <c r="F138">
+        <v>0.36160328984260598</v>
+      </c>
+      <c r="G138">
+        <v>0.118860676884651</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="84"/>
+        <v>0.14202276921859941</v>
+      </c>
+      <c r="K138" s="7"/>
       <c r="L138" s="7"/>
-      <c r="M138" s="7"/>
+      <c r="N138" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="O138" s="2">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="P138" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <f t="shared" si="88"/>
+        <v>0.26991767438539682</v>
+      </c>
+      <c r="R138">
+        <f t="shared" si="89"/>
+        <v>0.2840455384371986</v>
+      </c>
+      <c r="S138">
+        <f t="shared" si="90"/>
+        <v>0.28404553843719882</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A139" s="6">
+        <v>21</v>
+      </c>
+      <c r="B139" s="4">
+        <v>45123</v>
+      </c>
+      <c r="C139" t="s">
+        <v>21</v>
+      </c>
+      <c r="D139" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139">
+        <v>0.419675081968307</v>
+      </c>
+      <c r="F139">
+        <v>0.24984018504619601</v>
+      </c>
+      <c r="G139">
+        <v>0.33048474788665799</v>
+      </c>
+      <c r="H139">
+        <v>3</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="84"/>
+        <v>0.22299858461249328</v>
+      </c>
+      <c r="K139" s="7"/>
+      <c r="L139" s="7"/>
+      <c r="N139" s="7">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="O139" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P139" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <f t="shared" si="88"/>
+        <v>0.33677701048849112</v>
+      </c>
+      <c r="R139">
+        <f t="shared" si="89"/>
+        <v>0.44599716922498633</v>
+      </c>
+      <c r="S139">
+        <f t="shared" si="90"/>
+        <v>0.44599716922498656</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A140" s="6">
+        <v>21</v>
+      </c>
+      <c r="B140" s="4">
+        <v>45123</v>
+      </c>
+      <c r="C140" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140">
+        <v>0.263024181127548</v>
+      </c>
+      <c r="F140">
+        <v>0.39982524514198298</v>
+      </c>
+      <c r="G140">
+        <v>0.33715057373046903</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="84"/>
+        <v>0.2542755408818318</v>
+      </c>
+      <c r="K140" s="7"/>
+      <c r="L140" s="7"/>
+      <c r="N140" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="O140" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P140" s="2">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="Q140">
+        <f t="shared" si="88"/>
+        <v>6.9181719857817181E-2</v>
+      </c>
+      <c r="R140">
+        <f t="shared" si="89"/>
+        <v>0.50855108176366359</v>
+      </c>
+      <c r="S140">
+        <f t="shared" si="90"/>
+        <v>0.50855108176366359</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A141" s="6">
+        <v>21</v>
+      </c>
+      <c r="B141" s="4">
+        <v>45123</v>
+      </c>
+      <c r="C141" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" t="s">
+        <v>22</v>
+      </c>
+      <c r="E141">
+        <v>0.46525457501411399</v>
+      </c>
+      <c r="F141">
+        <v>0.29733371734619102</v>
+      </c>
+      <c r="G141">
+        <v>0.23741166293621099</v>
+      </c>
+      <c r="H141">
+        <v>2</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="84"/>
+        <v>0.17115849423386698</v>
+      </c>
+      <c r="K141" s="7"/>
+      <c r="L141" s="7"/>
+      <c r="N141" s="7">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="O141" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P141" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <f t="shared" si="88"/>
+        <v>0.28595266954333592</v>
+      </c>
+      <c r="R141">
+        <f t="shared" si="89"/>
+        <v>0.34231698846773195</v>
+      </c>
+      <c r="S141">
+        <f t="shared" si="90"/>
+        <v>0.34231698846773395</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A142" s="6">
+        <v>21</v>
+      </c>
+      <c r="B142" s="4">
+        <v>45123</v>
+      </c>
+      <c r="C142" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142">
+        <v>0.47098380327224698</v>
+      </c>
+      <c r="F142">
+        <v>0.30558881163597101</v>
+      </c>
+      <c r="G142">
+        <v>0.22342732548713701</v>
+      </c>
+      <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="84"/>
+        <v>0.16488896640462586</v>
+      </c>
+      <c r="K142" s="7"/>
+      <c r="L142" s="7"/>
+      <c r="N142" s="7">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="O142" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P142" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <f t="shared" si="88"/>
+        <v>0.27985813640029666</v>
+      </c>
+      <c r="R142">
+        <f t="shared" si="89"/>
+        <v>0.32977793280924816</v>
+      </c>
+      <c r="S142">
+        <f t="shared" si="90"/>
+        <v>0.32977793280925172</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A143" s="6">
+        <v>21</v>
+      </c>
+      <c r="B143" s="4">
+        <v>45123</v>
+      </c>
+      <c r="C143" t="s">
+        <v>24</v>
+      </c>
+      <c r="D143" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143">
+        <v>0.43963468074798601</v>
+      </c>
+      <c r="F143">
+        <v>0.27194193005561801</v>
+      </c>
+      <c r="G143">
+        <v>0.28842332959175099</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="84"/>
+        <v>0.19859867122797539</v>
+      </c>
+      <c r="K143" s="7"/>
+      <c r="L143" s="7"/>
+      <c r="N143" s="7">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="O143" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P143" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <f t="shared" si="88"/>
+        <v>0.31400929102041153</v>
+      </c>
+      <c r="R143">
+        <f t="shared" si="89"/>
+        <v>0.39719734245594723</v>
+      </c>
+      <c r="S143">
+        <f t="shared" si="90"/>
+        <v>0.39719734245595079</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A144" s="6">
+        <v>21</v>
+      </c>
+      <c r="B144" s="4">
+        <v>45123</v>
+      </c>
+      <c r="C144" t="s">
+        <v>23</v>
+      </c>
+      <c r="D144" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144">
+        <v>0.35996559262275701</v>
+      </c>
+      <c r="F144">
+        <v>0.303692787885666</v>
+      </c>
+      <c r="G144">
+        <v>0.33634164929389998</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>3</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="84"/>
+        <v>0.28500883694565821</v>
+      </c>
+      <c r="K144" s="7"/>
+      <c r="L144" s="7"/>
+      <c r="N144" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="O144" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P144" s="2">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="Q144">
+        <f t="shared" si="88"/>
+        <v>0.12957522787225265</v>
+      </c>
+      <c r="R144">
+        <f t="shared" si="89"/>
+        <v>0.57001767389131552</v>
+      </c>
+      <c r="S144">
+        <f t="shared" si="90"/>
+        <v>0.57001767389131641</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A145" s="6">
+        <v>16</v>
+      </c>
+      <c r="B145" s="4">
+        <v>45144</v>
+      </c>
+      <c r="C145" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" t="s">
+        <v>27</v>
+      </c>
+      <c r="E145">
+        <v>0.35569831728935197</v>
+      </c>
+      <c r="F145">
+        <v>0.236180290579796</v>
+      </c>
+      <c r="G145">
+        <v>0.40812143683433499</v>
+      </c>
+      <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="84"/>
+        <v>0.14654218181865158</v>
+      </c>
+      <c r="N145" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="O145" s="2">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="P145" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <f t="shared" si="88"/>
+        <v>0.12652129292247652</v>
+      </c>
+      <c r="R145">
+        <f t="shared" si="89"/>
+        <v>0.29308436363730117</v>
+      </c>
+      <c r="S145">
+        <f t="shared" si="90"/>
+        <v>0.29308436363730317</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A146" s="6">
+        <v>22</v>
+      </c>
+      <c r="B146" s="4">
+        <v>45143</v>
+      </c>
+      <c r="C146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146">
+        <v>0.48251128199999999</v>
+      </c>
+      <c r="F146">
+        <v>0.25833874899999998</v>
+      </c>
+      <c r="G146">
+        <v>0.25914996899999998</v>
+      </c>
+      <c r="H146" s="7"/>
+      <c r="L146" s="8"/>
+      <c r="M146" s="7"/>
+      <c r="N146" s="7"/>
+      <c r="P146" s="7"/>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A147" s="6">
+        <v>22</v>
+      </c>
+      <c r="B147" s="4">
+        <v>45143</v>
+      </c>
+      <c r="C147" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147">
+        <v>0.227301851</v>
+      </c>
+      <c r="F147">
+        <v>0.271783412</v>
+      </c>
+      <c r="G147">
+        <v>0.50091475200000002</v>
+      </c>
+      <c r="H147" s="7"/>
+      <c r="L147" s="8"/>
+      <c r="M147" s="7"/>
+      <c r="N147" s="7"/>
+      <c r="P147" s="7"/>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A148" s="6">
+        <v>22</v>
+      </c>
+      <c r="B148" s="4">
+        <v>45144</v>
+      </c>
+      <c r="C148" t="s">
+        <v>18</v>
+      </c>
+      <c r="D148" t="s">
+        <v>26</v>
+      </c>
+      <c r="E148">
+        <v>0.44855472200000002</v>
+      </c>
+      <c r="F148">
+        <v>0.24304814599999999</v>
+      </c>
+      <c r="G148">
+        <v>0.308397117</v>
+      </c>
+      <c r="H148" s="7"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="7"/>
+      <c r="N148" s="7"/>
+      <c r="P148" s="7"/>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A149" s="6">
+        <v>22</v>
+      </c>
+      <c r="B149" s="4">
+        <v>45144</v>
+      </c>
+      <c r="C149" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149">
+        <v>0.111333773</v>
+      </c>
+      <c r="F149">
+        <v>0.18086993700000001</v>
+      </c>
+      <c r="G149">
+        <v>0.70779628999999999</v>
+      </c>
+      <c r="H149" s="7"/>
+      <c r="L149" s="8"/>
+      <c r="M149" s="7"/>
+      <c r="N149" s="7"/>
+      <c r="P149" s="7"/>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A150" s="6">
+        <v>22</v>
+      </c>
+      <c r="B150" s="4">
+        <v>45144</v>
+      </c>
+      <c r="C150" t="s">
+        <v>22</v>
+      </c>
+      <c r="D150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150">
+        <v>0.219463989</v>
+      </c>
+      <c r="F150">
+        <v>0.39400222899999998</v>
+      </c>
+      <c r="G150">
+        <v>0.38653376699999997</v>
+      </c>
+      <c r="H150" s="7"/>
+      <c r="L150" s="8"/>
+      <c r="M150" s="7"/>
+      <c r="N150" s="7"/>
+      <c r="P150" s="9"/>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A151" s="6">
+        <v>22</v>
+      </c>
+      <c r="B151" s="4">
+        <v>45144</v>
+      </c>
+      <c r="C151" t="s">
+        <v>27</v>
+      </c>
+      <c r="D151" t="s">
+        <v>21</v>
+      </c>
+      <c r="E151">
+        <v>0.60173391600000004</v>
+      </c>
+      <c r="F151">
+        <v>0.25311553799999997</v>
+      </c>
+      <c r="G151">
+        <v>0.14515048699999999</v>
+      </c>
+      <c r="H151" s="7"/>
+      <c r="L151" s="8"/>
+      <c r="M151" s="7"/>
+      <c r="N151" s="7"/>
+      <c r="P151" s="7"/>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A152" s="6">
+        <v>22</v>
+      </c>
+      <c r="B152" s="4">
+        <v>45144</v>
+      </c>
+      <c r="C152" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s">
+        <v>25</v>
+      </c>
+      <c r="E152">
+        <v>0.45149424700000002</v>
+      </c>
+      <c r="F152">
+        <v>0.21517334900000001</v>
+      </c>
+      <c r="G152">
+        <v>0.33333241899999999</v>
+      </c>
+      <c r="H152" s="7"/>
+      <c r="L152" s="8"/>
+      <c r="M152" s="7"/>
+      <c r="N152" s="7"/>
+      <c r="P152" s="7"/>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A153" s="6">
+        <v>22</v>
+      </c>
+      <c r="B153" s="4">
+        <v>45144</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153">
+        <v>0.53417092600000005</v>
+      </c>
+      <c r="F153">
+        <v>0.240915507</v>
+      </c>
+      <c r="G153">
+        <v>0.224913582</v>
+      </c>
+      <c r="H153" s="7"/>
+      <c r="L153" s="8"/>
+      <c r="M153" s="7"/>
+      <c r="N153" s="7"/>
+      <c r="P153" s="7"/>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A154" s="6">
+        <v>22</v>
+      </c>
+      <c r="B154" s="4">
+        <v>45144</v>
+      </c>
+      <c r="C154" t="s">
+        <v>24</v>
+      </c>
+      <c r="D154" t="s">
+        <v>23</v>
+      </c>
+      <c r="E154">
+        <v>0.42814126600000002</v>
+      </c>
+      <c r="F154">
+        <v>0.31554675100000001</v>
+      </c>
+      <c r="G154">
+        <v>0.25631198300000002</v>
+      </c>
+      <c r="H154" s="7"/>
+      <c r="L154" s="8"/>
+      <c r="M154" s="7"/>
+      <c r="N154" s="7"/>
+      <c r="P154" s="7"/>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A155" s="6">
+        <v>23</v>
+      </c>
+      <c r="H155" s="7"/>
+      <c r="L155" s="8"/>
+      <c r="M155" s="7"/>
+      <c r="N155" s="7"/>
+      <c r="P155" s="7"/>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A156" s="6">
+        <v>23</v>
+      </c>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="L156" s="8"/>
+      <c r="M156" s="7"/>
+      <c r="N156" s="7"/>
+      <c r="P156" s="7"/>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A157" s="6"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="L157" s="8"/>
+      <c r="M157" s="7"/>
+      <c r="N157" s="7"/>
+      <c r="P157" s="7"/>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="L158" s="8"/>
+      <c r="M158" s="7"/>
+      <c r="N158" s="7"/>
+      <c r="P158" s="7"/>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="L159" s="8"/>
+      <c r="M159" s="7"/>
+      <c r="N159" s="7"/>
+      <c r="P159" s="10"/>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="L160" s="8"/>
+      <c r="M160" s="7"/>
+      <c r="N160" s="7"/>
+    </row>
+    <row r="161" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="H161" s="7"/>
+      <c r="L161" s="8"/>
+      <c r="M161" s="7"/>
+      <c r="N161" s="7"/>
+    </row>
+    <row r="162" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="L162" s="8"/>
+      <c r="M162" s="7"/>
+      <c r="N162" s="7"/>
+    </row>
+    <row r="163" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="L163" s="8"/>
+      <c r="M163" s="7"/>
+      <c r="N163" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RPS_J1_yoosh.xlsx
+++ b/RPS_J1_yoosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/machub/CodeDir/jleague/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920A5375-BD2B-6546-AB2E-36A0A2605FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38080414-5E92-9F43-AA6B-7D476DED9F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="920" windowWidth="27640" windowHeight="16940" xr2:uid="{5DA62EE6-12B6-4E4B-9305-85ED27E920C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -126,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,19 +167,6 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9.4"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.4"/>
-      <color rgb="FF525456"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -213,8 +200,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1971016B-5400-8E4D-AE04-8B5B560ADD6B}">
-  <dimension ref="A1:S163"/>
+  <dimension ref="A1:S202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E158" sqref="E158"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,8 +591,8 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2">
-        <f>AVERAGE(J2:J1000)</f>
-        <v>0.22110385749440453</v>
+        <f>AVERAGE(J2:J990)</f>
+        <v>0.22423178406473876</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
@@ -8804,11 +8789,40 @@
       <c r="G146">
         <v>0.25914996899999998</v>
       </c>
-      <c r="H146" s="7"/>
-      <c r="L146" s="8"/>
-      <c r="M146" s="7"/>
-      <c r="N146" s="7"/>
-      <c r="P146" s="7"/>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <f t="shared" ref="J146:J154" si="91">S146*(1/2)</f>
+        <v>0.16747663984499231</v>
+      </c>
+      <c r="N146" s="7">
+        <f t="shared" ref="N146:N154" si="92">IF(H146&gt;I146,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O146" s="2">
+        <f t="shared" ref="O146:O154" si="93">IF(H146=I146,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P146" s="7">
+        <f t="shared" ref="P146:P154" si="94">IF(H146&lt;I146,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <f t="shared" ref="Q146:Q154" si="95">(E146-N146)^2</f>
+        <v>0.26779457325728362</v>
+      </c>
+      <c r="R146">
+        <f t="shared" ref="R146:R154" si="96">((E146+F146)-(N146+O146))^2+Q146</f>
+        <v>0.33495327968998462</v>
+      </c>
+      <c r="S146">
+        <f t="shared" ref="S146:S154" si="97">((E146+F146+G146)-(N146+O146+P146))^2+R146</f>
+        <v>0.33495327968998462</v>
+      </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
@@ -8832,11 +8846,40 @@
       <c r="G147">
         <v>0.50091475200000002</v>
       </c>
-      <c r="H147" s="7"/>
-      <c r="L147" s="8"/>
-      <c r="M147" s="7"/>
-      <c r="N147" s="7"/>
-      <c r="P147" s="7"/>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="91"/>
+        <v>0.4239890016059028</v>
+      </c>
+      <c r="N147" s="7">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="O147" s="2">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="P147" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <f t="shared" si="95"/>
+        <v>0.59706242946802623</v>
+      </c>
+      <c r="R147">
+        <f t="shared" si="96"/>
+        <v>0.84797800321180539</v>
+      </c>
+      <c r="S147">
+        <f t="shared" si="97"/>
+        <v>0.84797800321180561</v>
+      </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
@@ -8860,11 +8903,40 @@
       <c r="G148">
         <v>0.308397117</v>
       </c>
-      <c r="H148" s="7"/>
-      <c r="L148" s="8"/>
-      <c r="M148" s="7"/>
-      <c r="N148" s="7"/>
-      <c r="P148" s="7"/>
+      <c r="H148">
+        <v>3</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="91"/>
+        <v>0.19960034282716144</v>
+      </c>
+      <c r="N148" s="7">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="O148" s="2">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="P148" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <f t="shared" si="95"/>
+        <v>0.30409189462849728</v>
+      </c>
+      <c r="R148">
+        <f t="shared" si="96"/>
+        <v>0.39920068565432265</v>
+      </c>
+      <c r="S148">
+        <f t="shared" si="97"/>
+        <v>0.39920068565432287</v>
+      </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
@@ -8888,11 +8960,40 @@
       <c r="G149">
         <v>0.70779628999999999</v>
       </c>
-      <c r="H149" s="7"/>
-      <c r="L149" s="8"/>
-      <c r="M149" s="7"/>
-      <c r="N149" s="7"/>
-      <c r="P149" s="7"/>
+      <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="91"/>
+        <v>0.64535162557408987</v>
+      </c>
+      <c r="N149" s="7">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="O149" s="2">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="P149" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <f t="shared" si="95"/>
+        <v>0.78972766301041553</v>
+      </c>
+      <c r="R149">
+        <f t="shared" si="96"/>
+        <v>1.2907032511481797</v>
+      </c>
+      <c r="S149">
+        <f t="shared" si="97"/>
+        <v>1.2907032511481797</v>
+      </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
@@ -8916,11 +9017,40 @@
       <c r="G150">
         <v>0.38653376699999997</v>
       </c>
-      <c r="H150" s="7"/>
-      <c r="L150" s="8"/>
-      <c r="M150" s="7"/>
-      <c r="N150" s="7"/>
-      <c r="P150" s="9"/>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="91"/>
+        <v>0.21225262154750793</v>
+      </c>
+      <c r="N150" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="O150" s="2">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="P150" s="7">
+        <f t="shared" si="94"/>
+        <v>1</v>
+      </c>
+      <c r="Q150">
+        <f t="shared" si="95"/>
+        <v>4.8164442467792119E-2</v>
+      </c>
+      <c r="R150">
+        <f t="shared" si="96"/>
+        <v>0.42450524309501564</v>
+      </c>
+      <c r="S150">
+        <f t="shared" si="97"/>
+        <v>0.42450524309501586</v>
+      </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
@@ -8944,11 +9074,40 @@
       <c r="G151">
         <v>0.14515048699999999</v>
       </c>
-      <c r="H151" s="7"/>
-      <c r="L151" s="8"/>
-      <c r="M151" s="7"/>
-      <c r="N151" s="7"/>
-      <c r="P151" s="7"/>
+      <c r="H151">
+        <v>3</v>
+      </c>
+      <c r="I151">
+        <v>4</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="91"/>
+        <v>0.54642564733439836</v>
+      </c>
+      <c r="N151" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="O151" s="2">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="P151" s="7">
+        <f t="shared" si="94"/>
+        <v>1</v>
+      </c>
+      <c r="Q151">
+        <f t="shared" si="95"/>
+        <v>0.36208370566469511</v>
+      </c>
+      <c r="R151">
+        <f t="shared" si="96"/>
+        <v>1.0928512946687932</v>
+      </c>
+      <c r="S151">
+        <f t="shared" si="97"/>
+        <v>1.0928512946687967</v>
+      </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
@@ -8972,11 +9131,40 @@
       <c r="G152">
         <v>0.33333241899999999</v>
       </c>
-      <c r="H152" s="7"/>
-      <c r="L152" s="8"/>
-      <c r="M152" s="7"/>
-      <c r="N152" s="7"/>
-      <c r="P152" s="7"/>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="91"/>
+        <v>0.15747877331525822</v>
+      </c>
+      <c r="N152" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="O152" s="2">
+        <f t="shared" si="93"/>
+        <v>1</v>
+      </c>
+      <c r="P152" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <f t="shared" si="95"/>
+        <v>0.20384705507409703</v>
+      </c>
+      <c r="R152">
+        <f t="shared" si="96"/>
+        <v>0.31495754663051623</v>
+      </c>
+      <c r="S152">
+        <f t="shared" si="97"/>
+        <v>0.31495754663051645</v>
+      </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
@@ -9000,11 +9188,40 @@
       <c r="G153">
         <v>0.224913582</v>
       </c>
-      <c r="H153" s="7"/>
-      <c r="L153" s="8"/>
-      <c r="M153" s="7"/>
-      <c r="N153" s="7"/>
-      <c r="P153" s="7"/>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="91"/>
+        <v>0.4430487784021806</v>
+      </c>
+      <c r="N153" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="O153" s="2">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="P153" s="7">
+        <f t="shared" si="94"/>
+        <v>1</v>
+      </c>
+      <c r="Q153">
+        <f t="shared" si="95"/>
+        <v>0.28533857818369751</v>
+      </c>
+      <c r="R153">
+        <f t="shared" si="96"/>
+        <v>0.88609755680436098</v>
+      </c>
+      <c r="S153">
+        <f t="shared" si="97"/>
+        <v>0.8860975568043612</v>
+      </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
@@ -9028,93 +9245,2409 @@
       <c r="G154">
         <v>0.25631198300000002</v>
       </c>
-      <c r="H154" s="7"/>
-      <c r="L154" s="8"/>
-      <c r="M154" s="7"/>
-      <c r="N154" s="7"/>
-      <c r="P154" s="7"/>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="91"/>
+        <v>0.36818840514073747</v>
+      </c>
+      <c r="N154" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="O154" s="2">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="P154" s="7">
+        <f t="shared" si="94"/>
+        <v>1</v>
+      </c>
+      <c r="Q154">
+        <f t="shared" si="95"/>
+        <v>0.18330494365208277</v>
+      </c>
+      <c r="R154">
+        <f t="shared" si="96"/>
+        <v>0.73637681028147495</v>
+      </c>
+      <c r="S154">
+        <f t="shared" si="97"/>
+        <v>0.73637681028147495</v>
+      </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>23</v>
       </c>
-      <c r="H155" s="7"/>
-      <c r="L155" s="8"/>
-      <c r="M155" s="7"/>
-      <c r="N155" s="7"/>
-      <c r="P155" s="7"/>
+      <c r="B155" s="4">
+        <v>45150</v>
+      </c>
+      <c r="C155" t="s">
+        <v>26</v>
+      </c>
+      <c r="D155" t="s">
+        <v>22</v>
+      </c>
+      <c r="E155">
+        <v>0.47831624700000003</v>
+      </c>
+      <c r="F155">
+        <v>0.25963076899999998</v>
+      </c>
+      <c r="G155">
+        <v>0.262053013</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <f t="shared" ref="J155:J172" si="98">S155*(1/2)</f>
+        <v>0.14872909928373504</v>
+      </c>
+      <c r="N155" s="7">
+        <f t="shared" ref="N155:N163" si="99">IF(H155&gt;I155,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O155" s="2">
+        <f t="shared" ref="O155:O163" si="100">IF(H155=I155,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P155" s="7">
+        <f t="shared" ref="P155:P163" si="101">IF(H155&lt;I155,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <f t="shared" ref="Q155:Q163" si="102">(E155-N155)^2</f>
+        <v>0.22878643214416503</v>
+      </c>
+      <c r="R155">
+        <f t="shared" ref="R155:R163" si="103">((E155+F155)-(N155+O155))^2+Q155</f>
+        <v>0.29745819856746925</v>
+      </c>
+      <c r="S155">
+        <f t="shared" ref="S155:S163" si="104">((E155+F155+G155)-(N155+O155+P155))^2+R155</f>
+        <v>0.29745819856747008</v>
+      </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>23</v>
       </c>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7"/>
-      <c r="H156" s="7"/>
-      <c r="L156" s="8"/>
-      <c r="M156" s="7"/>
-      <c r="N156" s="7"/>
-      <c r="P156" s="7"/>
+      <c r="B156" s="4">
+        <v>45150</v>
+      </c>
+      <c r="C156" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" t="s">
+        <v>20</v>
+      </c>
+      <c r="E156">
+        <v>0.59191834899999995</v>
+      </c>
+      <c r="F156">
+        <v>0.201732457</v>
+      </c>
+      <c r="G156">
+        <v>0.20634920900000001</v>
+      </c>
+      <c r="H156">
+        <v>2</v>
+      </c>
+      <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="98"/>
+        <v>0.19647366087366783</v>
+      </c>
+      <c r="N156" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="O156" s="2">
+        <f t="shared" si="100"/>
+        <v>1</v>
+      </c>
+      <c r="P156" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <f t="shared" si="102"/>
+        <v>0.35036733188288577</v>
+      </c>
+      <c r="R156">
+        <f t="shared" si="103"/>
+        <v>0.39294732174733543</v>
+      </c>
+      <c r="S156">
+        <f t="shared" si="104"/>
+        <v>0.39294732174733565</v>
+      </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A157" s="6"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="H157" s="7"/>
-      <c r="L157" s="8"/>
-      <c r="M157" s="7"/>
-      <c r="N157" s="7"/>
-      <c r="P157" s="7"/>
+      <c r="A157" s="6">
+        <v>23</v>
+      </c>
+      <c r="B157" s="4">
+        <v>45150</v>
+      </c>
+      <c r="C157" t="s">
+        <v>23</v>
+      </c>
+      <c r="D157" t="s">
+        <v>16</v>
+      </c>
+      <c r="E157">
+        <v>0.49281945799999999</v>
+      </c>
+      <c r="F157">
+        <v>0.270881861</v>
+      </c>
+      <c r="G157">
+        <v>0.236298651</v>
+      </c>
+      <c r="H157">
+        <v>2</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="98"/>
+        <v>0.15653458441287721</v>
+      </c>
+      <c r="N157" s="7">
+        <f t="shared" si="99"/>
+        <v>1</v>
+      </c>
+      <c r="O157" s="2">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="P157" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <f t="shared" si="102"/>
+        <v>0.25723210218341375</v>
+      </c>
+      <c r="R157">
+        <f t="shared" si="103"/>
+        <v>0.31306916882575353</v>
+      </c>
+      <c r="S157">
+        <f t="shared" si="104"/>
+        <v>0.31306916882575442</v>
+      </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E158" s="7"/>
-      <c r="F158" s="7"/>
-      <c r="H158" s="7"/>
-      <c r="L158" s="8"/>
-      <c r="M158" s="7"/>
-      <c r="N158" s="7"/>
-      <c r="P158" s="7"/>
+      <c r="A158" s="6">
+        <v>23</v>
+      </c>
+      <c r="B158" s="4">
+        <v>45150</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158">
+        <v>0.47525799299999999</v>
+      </c>
+      <c r="F158">
+        <v>0.35342648599999998</v>
+      </c>
+      <c r="G158">
+        <v>0.17131550600000001</v>
+      </c>
+      <c r="H158">
+        <v>2</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="98"/>
+        <v>0.15235159082294486</v>
+      </c>
+      <c r="N158" s="7">
+        <f t="shared" si="99"/>
+        <v>1</v>
+      </c>
+      <c r="O158" s="2">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="P158" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="Q158">
+        <f t="shared" si="102"/>
+        <v>0.27535417391038802</v>
+      </c>
+      <c r="R158">
+        <f t="shared" si="103"/>
+        <v>0.3047031816458895</v>
+      </c>
+      <c r="S158">
+        <f t="shared" si="104"/>
+        <v>0.30470318164588972</v>
+      </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E159" s="7"/>
-      <c r="F159" s="7"/>
-      <c r="H159" s="7"/>
-      <c r="L159" s="8"/>
-      <c r="M159" s="7"/>
-      <c r="N159" s="7"/>
-      <c r="P159" s="10"/>
+      <c r="A159" s="6">
+        <v>23</v>
+      </c>
+      <c r="B159" s="4">
+        <v>45150</v>
+      </c>
+      <c r="C159" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" t="s">
+        <v>24</v>
+      </c>
+      <c r="E159">
+        <v>0.28187686200000001</v>
+      </c>
+      <c r="F159">
+        <v>0.36801418699999999</v>
+      </c>
+      <c r="G159">
+        <v>0.350108951</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="98"/>
+        <v>0.10101542145064371</v>
+      </c>
+      <c r="N159" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="O159" s="2">
+        <f t="shared" si="100"/>
+        <v>1</v>
+      </c>
+      <c r="P159" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <f t="shared" si="102"/>
+        <v>7.945456533096705E-2</v>
+      </c>
+      <c r="R159">
+        <f t="shared" si="103"/>
+        <v>0.20203084290128742</v>
+      </c>
+      <c r="S159">
+        <f t="shared" si="104"/>
+        <v>0.20203084290128742</v>
+      </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E160" s="7"/>
-      <c r="F160" s="7"/>
-      <c r="H160" s="7"/>
-      <c r="L160" s="8"/>
-      <c r="M160" s="7"/>
-      <c r="N160" s="7"/>
-    </row>
-    <row r="161" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E161" s="7"/>
-      <c r="F161" s="7"/>
-      <c r="H161" s="7"/>
-      <c r="L161" s="8"/>
-      <c r="M161" s="7"/>
-      <c r="N161" s="7"/>
-    </row>
-    <row r="162" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-      <c r="H162" s="7"/>
-      <c r="L162" s="8"/>
-      <c r="M162" s="7"/>
-      <c r="N162" s="7"/>
-    </row>
-    <row r="163" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
-      <c r="H163" s="7"/>
-      <c r="L163" s="8"/>
-      <c r="M163" s="7"/>
-      <c r="N163" s="7"/>
+      <c r="A160" s="6">
+        <v>23</v>
+      </c>
+      <c r="B160" s="4">
+        <v>45150</v>
+      </c>
+      <c r="C160" t="s">
+        <v>27</v>
+      </c>
+      <c r="D160" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160">
+        <v>0.55421274899999995</v>
+      </c>
+      <c r="F160">
+        <v>0.16762849699999999</v>
+      </c>
+      <c r="G160">
+        <v>0.27815872400000002</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="98"/>
+        <v>0.41410327779048511</v>
+      </c>
+      <c r="N160" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="O160" s="2">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="P160" s="7">
+        <f t="shared" si="101"/>
+        <v>1</v>
+      </c>
+      <c r="Q160">
+        <f t="shared" si="102"/>
+        <v>0.30715177115413694</v>
+      </c>
+      <c r="R160">
+        <f t="shared" si="103"/>
+        <v>0.82820655558096934</v>
+      </c>
+      <c r="S160">
+        <f t="shared" si="104"/>
+        <v>0.82820655558097023</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A161" s="6">
+        <v>23</v>
+      </c>
+      <c r="B161" s="4">
+        <v>45150</v>
+      </c>
+      <c r="C161" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" t="s">
+        <v>21</v>
+      </c>
+      <c r="E161">
+        <v>0.46015198200000001</v>
+      </c>
+      <c r="F161">
+        <v>0.25419845299999999</v>
+      </c>
+      <c r="G161">
+        <v>0.28564950500000003</v>
+      </c>
+      <c r="H161">
+        <v>2</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="98"/>
+        <v>0.18651577826161059</v>
+      </c>
+      <c r="N161" s="7">
+        <f t="shared" si="99"/>
+        <v>1</v>
+      </c>
+      <c r="O161" s="2">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="P161" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <f t="shared" si="102"/>
+        <v>0.29143588253852837</v>
+      </c>
+      <c r="R161">
+        <f t="shared" si="103"/>
+        <v>0.37303155652321757</v>
+      </c>
+      <c r="S161">
+        <f t="shared" si="104"/>
+        <v>0.37303155652322117</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A162" s="6">
+        <v>23</v>
+      </c>
+      <c r="B162" s="4">
+        <v>45151</v>
+      </c>
+      <c r="C162" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162">
+        <v>0.33567349000000002</v>
+      </c>
+      <c r="F162">
+        <v>0.32784162</v>
+      </c>
+      <c r="G162">
+        <v>0.332042379</v>
+      </c>
+      <c r="H162">
+        <v>2</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="98"/>
+        <v>0.2772857644955386</v>
+      </c>
+      <c r="N162" s="7">
+        <f t="shared" si="99"/>
+        <v>1</v>
+      </c>
+      <c r="O162" s="2">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="P162" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <f t="shared" si="102"/>
+        <v>0.44132971188878006</v>
+      </c>
+      <c r="R162">
+        <f t="shared" si="103"/>
+        <v>0.55455179308709213</v>
+      </c>
+      <c r="S162">
+        <f t="shared" si="104"/>
+        <v>0.5545715289910772</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A163" s="6">
+        <v>23</v>
+      </c>
+      <c r="B163" s="4">
+        <v>45151</v>
+      </c>
+      <c r="C163" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E163">
+        <v>0.56928820000000002</v>
+      </c>
+      <c r="F163">
+        <v>0.20569832299999999</v>
+      </c>
+      <c r="G163">
+        <v>0.22501347699999999</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="98"/>
+        <v>0.11807185974543474</v>
+      </c>
+      <c r="N163" s="7">
+        <f t="shared" si="99"/>
+        <v>1</v>
+      </c>
+      <c r="O163" s="2">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="P163" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="Q163">
+        <f t="shared" si="102"/>
+        <v>0.18551265465923997</v>
+      </c>
+      <c r="R163">
+        <f t="shared" si="103"/>
+        <v>0.23614371949086949</v>
+      </c>
+      <c r="S163">
+        <f t="shared" si="104"/>
+        <v>0.23614371949086949</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A164" s="6">
+        <v>24</v>
+      </c>
+      <c r="B164" s="4">
+        <v>45156</v>
+      </c>
+      <c r="C164" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164">
+        <v>0.45371732100000001</v>
+      </c>
+      <c r="F164">
+        <v>0.24788908700000001</v>
+      </c>
+      <c r="G164">
+        <v>0.29839363699999999</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="98"/>
+        <v>0.34905547956104072</v>
+      </c>
+      <c r="L164" s="8"/>
+      <c r="M164" s="7"/>
+      <c r="N164" s="7">
+        <f t="shared" ref="N164:N172" si="105">IF(H164&gt;I164,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O164" s="2">
+        <f t="shared" ref="O164:O172" si="106">IF(H164=I164,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P164" s="7">
+        <f t="shared" ref="P164:P172" si="107">IF(H164&lt;I164,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q164">
+        <f t="shared" ref="Q164:Q172" si="108">(E164-N164)^2</f>
+        <v>0.20585940737541705</v>
+      </c>
+      <c r="R164">
+        <f t="shared" ref="R164:R172" si="109">((E164+F164)-(N164+O164))^2+Q164</f>
+        <v>0.69811095912207943</v>
+      </c>
+      <c r="S164">
+        <f t="shared" ref="S164:S172" si="110">((E164+F164+G164)-(N164+O164+P164))^2+R164</f>
+        <v>0.69811095912208143</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A165" s="6">
+        <v>24</v>
+      </c>
+      <c r="B165" s="4">
+        <v>45157</v>
+      </c>
+      <c r="C165" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" t="s">
+        <v>22</v>
+      </c>
+      <c r="E165">
+        <v>0.35459792600000001</v>
+      </c>
+      <c r="F165">
+        <v>0.36786308899999998</v>
+      </c>
+      <c r="G165">
+        <v>0.27753898500000002</v>
+      </c>
+      <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="98"/>
+        <v>0.24678586265916583</v>
+      </c>
+      <c r="L165" s="8"/>
+      <c r="M165" s="7"/>
+      <c r="N165" s="7">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="O165" s="2">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="P165" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <f t="shared" si="108"/>
+        <v>0.4165438371235014</v>
+      </c>
+      <c r="R165">
+        <f t="shared" si="109"/>
+        <v>0.49357172531833166</v>
+      </c>
+      <c r="S165">
+        <f t="shared" si="110"/>
+        <v>0.49357172531833166</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A166" s="6">
+        <v>24</v>
+      </c>
+      <c r="B166" s="4">
+        <v>45157</v>
+      </c>
+      <c r="C166" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166">
+        <v>0.50725674600000004</v>
+      </c>
+      <c r="F166">
+        <v>0.243062466</v>
+      </c>
+      <c r="G166">
+        <v>0.249680817</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="98"/>
+        <v>0.15982495112940515</v>
+      </c>
+      <c r="L166" s="8"/>
+      <c r="M166" s="7"/>
+      <c r="N166" s="7">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="O166" s="2">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="P166" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <f t="shared" si="108"/>
+        <v>0.25730940636250854</v>
+      </c>
+      <c r="R166">
+        <f t="shared" si="109"/>
+        <v>0.31964990225880946</v>
+      </c>
+      <c r="S166">
+        <f t="shared" si="110"/>
+        <v>0.31964990225881029</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A167" s="6">
+        <v>24</v>
+      </c>
+      <c r="B167" s="4">
+        <v>45157</v>
+      </c>
+      <c r="C167" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167">
+        <v>0.41823595800000002</v>
+      </c>
+      <c r="F167">
+        <v>0.27931040200000001</v>
+      </c>
+      <c r="G167">
+        <v>0.302453641</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <f t="shared" si="98"/>
+        <v>0.21496380245671365</v>
+      </c>
+      <c r="L167" s="8"/>
+      <c r="M167" s="7"/>
+      <c r="N167" s="7">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="O167" s="2">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="P167" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="Q167">
+        <f t="shared" si="108"/>
+        <v>0.33844940056417772</v>
+      </c>
+      <c r="R167">
+        <f t="shared" si="109"/>
+        <v>0.4299276049134273</v>
+      </c>
+      <c r="S167">
+        <f t="shared" si="110"/>
+        <v>0.4299276049134273</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A168" s="6">
+        <v>24</v>
+      </c>
+      <c r="B168" s="4">
+        <v>45157</v>
+      </c>
+      <c r="C168" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" t="s">
+        <v>27</v>
+      </c>
+      <c r="E168">
+        <v>0.38633835300000002</v>
+      </c>
+      <c r="F168">
+        <v>0.22685866099999999</v>
+      </c>
+      <c r="G168">
+        <v>0.38680294199999998</v>
+      </c>
+      <c r="H168">
+        <v>3</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168">
+        <f t="shared" si="98"/>
+        <v>0.26309858348863535</v>
+      </c>
+      <c r="N168" s="7">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="O168" s="2">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="P168" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <f t="shared" si="108"/>
+        <v>0.37658061699875267</v>
+      </c>
+      <c r="R168">
+        <f t="shared" si="109"/>
+        <v>0.52619716697726882</v>
+      </c>
+      <c r="S168">
+        <f t="shared" si="110"/>
+        <v>0.5261971669772707</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A169" s="6">
+        <v>24</v>
+      </c>
+      <c r="B169" s="4">
+        <v>45157</v>
+      </c>
+      <c r="C169" t="s">
+        <v>16</v>
+      </c>
+      <c r="D169" t="s">
+        <v>26</v>
+      </c>
+      <c r="E169">
+        <v>0.35465999799999998</v>
+      </c>
+      <c r="F169">
+        <v>0.26432354600000002</v>
+      </c>
+      <c r="G169">
+        <v>0.38101644000000001</v>
+      </c>
+      <c r="H169">
+        <v>3</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="98"/>
+        <v>0.2808186289620801</v>
+      </c>
+      <c r="L169" s="8"/>
+      <c r="M169" s="7"/>
+      <c r="N169" s="7">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="O169" s="2">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="P169" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <f t="shared" si="108"/>
+        <v>0.41646371818135997</v>
+      </c>
+      <c r="R169">
+        <f t="shared" si="109"/>
+        <v>0.56163725792415997</v>
+      </c>
+      <c r="S169">
+        <f t="shared" si="110"/>
+        <v>0.56163725792416019</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A170" s="6">
+        <v>24</v>
+      </c>
+      <c r="B170" s="4">
+        <v>45157</v>
+      </c>
+      <c r="C170" t="s">
+        <v>21</v>
+      </c>
+      <c r="D170" t="s">
+        <v>20</v>
+      </c>
+      <c r="E170">
+        <v>0.59095072699999995</v>
+      </c>
+      <c r="F170">
+        <v>0.196090758</v>
+      </c>
+      <c r="G170">
+        <v>0.21295857400000001</v>
+      </c>
+      <c r="H170">
+        <v>2</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <f t="shared" si="98"/>
+        <v>0.10633631842641865</v>
+      </c>
+      <c r="L170" s="8"/>
+      <c r="M170" s="7"/>
+      <c r="N170" s="7">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="O170" s="2">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="P170" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <f t="shared" si="108"/>
+        <v>0.16732130774182857</v>
+      </c>
+      <c r="R170">
+        <f t="shared" si="109"/>
+        <v>0.21267263685283383</v>
+      </c>
+      <c r="S170">
+        <f t="shared" si="110"/>
+        <v>0.2126726368528373</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A171" s="6">
+        <v>24</v>
+      </c>
+      <c r="B171" s="4">
+        <v>45157</v>
+      </c>
+      <c r="C171" t="s">
+        <v>25</v>
+      </c>
+      <c r="D171" t="s">
+        <v>23</v>
+      </c>
+      <c r="E171">
+        <v>0.70991420699999996</v>
+      </c>
+      <c r="F171">
+        <v>0.15338634000000001</v>
+      </c>
+      <c r="G171">
+        <v>0.13669948300000001</v>
+      </c>
+      <c r="H171">
+        <v>2</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <f t="shared" si="98"/>
+        <v>5.14182538754695E-2</v>
+      </c>
+      <c r="L171" s="8"/>
+      <c r="M171" s="7"/>
+      <c r="N171" s="7">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="O171" s="2">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="P171" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <f t="shared" si="108"/>
+        <v>8.4149767300438869E-2</v>
+      </c>
+      <c r="R171">
+        <f t="shared" si="109"/>
+        <v>0.1028365077509381</v>
+      </c>
+      <c r="S171">
+        <f t="shared" si="110"/>
+        <v>0.102836507750939</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A172" s="6">
+        <v>24</v>
+      </c>
+      <c r="B172" s="4">
+        <v>45158</v>
+      </c>
+      <c r="C172" t="s">
+        <v>14</v>
+      </c>
+      <c r="D172" t="s">
+        <v>24</v>
+      </c>
+      <c r="E172">
+        <v>0.30788254700000001</v>
+      </c>
+      <c r="F172">
+        <v>0.27617403899999998</v>
+      </c>
+      <c r="G172">
+        <v>0.41594347399999998</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <f t="shared" si="98"/>
+        <v>0.21795687919859311</v>
+      </c>
+      <c r="L172" s="8"/>
+      <c r="M172" s="7"/>
+      <c r="N172" s="7">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="O172" s="2">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="P172" s="7">
+        <f t="shared" si="107"/>
+        <v>1</v>
+      </c>
+      <c r="Q172">
+        <f t="shared" si="108"/>
+        <v>9.4791662747207212E-2</v>
+      </c>
+      <c r="R172">
+        <f t="shared" si="109"/>
+        <v>0.4359137583971826</v>
+      </c>
+      <c r="S172">
+        <f t="shared" si="110"/>
+        <v>0.43591375839718621</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A173" s="6">
+        <v>25</v>
+      </c>
+      <c r="B173" s="4">
+        <v>45163</v>
+      </c>
+      <c r="C173" t="s">
+        <v>20</v>
+      </c>
+      <c r="D173" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173">
+        <v>0.31838640570640597</v>
+      </c>
+      <c r="F173">
+        <v>0.26185312867164601</v>
+      </c>
+      <c r="G173">
+        <v>0.41976040601730302</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <f t="shared" ref="J173:J181" si="111">S173*(1/2)</f>
+        <v>0.21902391029695314</v>
+      </c>
+      <c r="L173" s="8"/>
+      <c r="M173" s="7"/>
+      <c r="N173" s="7">
+        <f t="shared" ref="N173:N181" si="112">IF(H173&gt;I173,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O173" s="2">
+        <f t="shared" ref="O173:O181" si="113">IF(H173=I173,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P173" s="7">
+        <f t="shared" ref="P173:P181" si="114">IF(H173&lt;I173,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q173">
+        <f t="shared" ref="Q173:Q181" si="115">(E173-N173)^2</f>
+        <v>0.10136990333864414</v>
+      </c>
+      <c r="R173">
+        <f t="shared" ref="R173:R181" si="116">((E173+F173)-(N173+O173))^2+Q173</f>
+        <v>0.43804782059390274</v>
+      </c>
+      <c r="S173">
+        <f t="shared" ref="S173:S181" si="117">((E173+F173+G173)-(N173+O173+P173))^2+R173</f>
+        <v>0.43804782059390629</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A174" s="6">
+        <v>25</v>
+      </c>
+      <c r="B174" s="4">
+        <v>45164</v>
+      </c>
+      <c r="C174" t="s">
+        <v>18</v>
+      </c>
+      <c r="D174" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174">
+        <v>0.36282297968864402</v>
+      </c>
+      <c r="F174">
+        <v>0.31822258234023998</v>
+      </c>
+      <c r="G174">
+        <v>0.318954437971115</v>
+      </c>
+      <c r="H174">
+        <v>2</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <f>S174*(1/2)</f>
+        <v>0.25386324435716434</v>
+      </c>
+      <c r="L174" s="8"/>
+      <c r="M174" s="7"/>
+      <c r="N174" s="7">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+      <c r="O174" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="P174" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="Q174">
+        <f t="shared" si="115"/>
+        <v>0.40599455521285821</v>
+      </c>
+      <c r="R174">
+        <f t="shared" si="116"/>
+        <v>0.50772648871432868</v>
+      </c>
+      <c r="S174">
+        <f t="shared" si="117"/>
+        <v>0.50772648871432868</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A175" s="6">
+        <v>25</v>
+      </c>
+      <c r="B175" s="4">
+        <v>45164</v>
+      </c>
+      <c r="C175" t="s">
+        <v>14</v>
+      </c>
+      <c r="D175" t="s">
+        <v>25</v>
+      </c>
+      <c r="E175">
+        <v>0.28511548042297402</v>
+      </c>
+      <c r="F175">
+        <v>0.22546143829822499</v>
+      </c>
+      <c r="G175">
+        <v>0.48942303657531699</v>
+      </c>
+      <c r="H175">
+        <v>4</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="111"/>
+        <v>0.37529741440965647</v>
+      </c>
+      <c r="L175" s="8"/>
+      <c r="M175" s="7"/>
+      <c r="N175" s="7">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+      <c r="O175" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="P175" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <f t="shared" si="115"/>
+        <v>0.51105987633087513</v>
+      </c>
+      <c r="R175">
+        <f t="shared" si="116"/>
+        <v>0.75059482881931094</v>
+      </c>
+      <c r="S175">
+        <f t="shared" si="117"/>
+        <v>0.75059482881931294</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A176" s="6">
+        <v>25</v>
+      </c>
+      <c r="B176" s="4">
+        <v>45164</v>
+      </c>
+      <c r="C176" t="s">
+        <v>24</v>
+      </c>
+      <c r="D176" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176">
+        <v>0.344263255596161</v>
+      </c>
+      <c r="F176">
+        <v>0.36995708942413302</v>
+      </c>
+      <c r="G176">
+        <v>0.28577965497970598</v>
+      </c>
+      <c r="H176">
+        <v>3</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <f t="shared" si="111"/>
+        <v>0.25583034458083276</v>
+      </c>
+      <c r="L176" s="8"/>
+      <c r="M176" s="7"/>
+      <c r="N176" s="7">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+      <c r="O176" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="P176" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="Q176">
+        <f t="shared" si="115"/>
+        <v>0.42999067796134566</v>
+      </c>
+      <c r="R176">
+        <f t="shared" si="116"/>
+        <v>0.51166068916166552</v>
+      </c>
+      <c r="S176">
+        <f t="shared" si="117"/>
+        <v>0.51166068916166552</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A177" s="6">
+        <v>25</v>
+      </c>
+      <c r="B177" s="4">
+        <v>45164</v>
+      </c>
+      <c r="C177" t="s">
+        <v>23</v>
+      </c>
+      <c r="D177" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177">
+        <v>0.36944130063056901</v>
+      </c>
+      <c r="F177">
+        <v>0.22799779474735299</v>
+      </c>
+      <c r="G177">
+        <v>0.40256085991859403</v>
+      </c>
+      <c r="H177">
+        <v>2</v>
+      </c>
+      <c r="I177">
+        <v>2</v>
+      </c>
+      <c r="J177">
+        <f t="shared" si="111"/>
+        <v>0.1492710782708771</v>
+      </c>
+      <c r="L177" s="8"/>
+      <c r="M177" s="7"/>
+      <c r="N177" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="O177" s="2">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="P177" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <f t="shared" si="115"/>
+        <v>0.13648687461160647</v>
+      </c>
+      <c r="R177">
+        <f t="shared" si="116"/>
+        <v>0.2985421565417522</v>
+      </c>
+      <c r="S177">
+        <f t="shared" si="117"/>
+        <v>0.2985421565417542</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A178" s="6">
+        <v>25</v>
+      </c>
+      <c r="B178" s="4">
+        <v>45164</v>
+      </c>
+      <c r="C178" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" t="s">
+        <v>19</v>
+      </c>
+      <c r="E178">
+        <v>0.190459549427032</v>
+      </c>
+      <c r="F178">
+        <v>0.28177407383918801</v>
+      </c>
+      <c r="G178">
+        <v>0.52776634693145796</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <f t="shared" si="111"/>
+        <v>0.15740609418932558</v>
+      </c>
+      <c r="L178" s="8"/>
+      <c r="M178" s="7"/>
+      <c r="N178" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="O178" s="2">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="P178" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <f t="shared" si="115"/>
+        <v>3.6274839967948044E-2</v>
+      </c>
+      <c r="R178">
+        <f t="shared" si="116"/>
+        <v>0.31481218837865027</v>
+      </c>
+      <c r="S178">
+        <f t="shared" si="117"/>
+        <v>0.31481218837865116</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A179" s="6">
+        <v>25</v>
+      </c>
+      <c r="B179" s="4">
+        <v>45164</v>
+      </c>
+      <c r="C179" t="s">
+        <v>27</v>
+      </c>
+      <c r="D179" t="s">
+        <v>26</v>
+      </c>
+      <c r="E179">
+        <v>0.544938564300537</v>
+      </c>
+      <c r="F179">
+        <v>0.20037923753261599</v>
+      </c>
+      <c r="G179">
+        <v>0.25468215346336398</v>
+      </c>
+      <c r="H179">
+        <v>2</v>
+      </c>
+      <c r="I179">
+        <v>2</v>
+      </c>
+      <c r="J179">
+        <f t="shared" si="111"/>
+        <v>0.18091053046251482</v>
+      </c>
+      <c r="L179" s="8"/>
+      <c r="M179" s="7"/>
+      <c r="N179" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="O179" s="2">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="P179" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <f t="shared" si="115"/>
+        <v>0.29695803886193051</v>
+      </c>
+      <c r="R179">
+        <f t="shared" si="116"/>
+        <v>0.36182106092502764</v>
+      </c>
+      <c r="S179">
+        <f t="shared" si="117"/>
+        <v>0.36182106092502964</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A180" s="6">
+        <v>25</v>
+      </c>
+      <c r="B180" s="4">
+        <v>45164</v>
+      </c>
+      <c r="C180" t="s">
+        <v>22</v>
+      </c>
+      <c r="D180" t="s">
+        <v>21</v>
+      </c>
+      <c r="E180">
+        <v>0.39950507879257202</v>
+      </c>
+      <c r="F180">
+        <v>0.334637701511383</v>
+      </c>
+      <c r="G180">
+        <v>0.26585724949836698</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <f t="shared" si="111"/>
+        <v>0.11514218462278558</v>
+      </c>
+      <c r="L180" s="8"/>
+      <c r="M180" s="7"/>
+      <c r="N180" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="O180" s="2">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="P180" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="Q180">
+        <f t="shared" si="115"/>
+        <v>0.15960430798105918</v>
+      </c>
+      <c r="R180">
+        <f t="shared" si="116"/>
+        <v>0.23028436924557028</v>
+      </c>
+      <c r="S180">
+        <f t="shared" si="117"/>
+        <v>0.23028436924557116</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A181" s="6">
+        <v>25</v>
+      </c>
+      <c r="B181" s="4">
+        <v>45164</v>
+      </c>
+      <c r="C181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" t="s">
+        <v>15</v>
+      </c>
+      <c r="E181">
+        <v>0.43966731429099998</v>
+      </c>
+      <c r="F181">
+        <v>0.30260819196701</v>
+      </c>
+      <c r="G181">
+        <v>0.25772449374198902</v>
+      </c>
+      <c r="H181">
+        <v>2</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <f t="shared" si="111"/>
+        <v>0.19019731667421305</v>
+      </c>
+      <c r="L181" s="8"/>
+      <c r="M181" s="7"/>
+      <c r="N181" s="7">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+      <c r="O181" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="P181" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <f t="shared" si="115"/>
+        <v>0.31397271867386106</v>
+      </c>
+      <c r="R181">
+        <f t="shared" si="116"/>
+        <v>0.3803946333484261</v>
+      </c>
+      <c r="S181">
+        <f t="shared" si="117"/>
+        <v>0.3803946333484261</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A182" s="6">
+        <v>26</v>
+      </c>
+      <c r="B182" s="4">
+        <v>45171</v>
+      </c>
+      <c r="C182" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" t="s">
+        <v>14</v>
+      </c>
+      <c r="E182">
+        <v>0.56507658958435103</v>
+      </c>
+      <c r="F182">
+        <v>0.27364197373390198</v>
+      </c>
+      <c r="G182">
+        <v>0.16128143668174699</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <f t="shared" ref="J182:J190" si="118">S182*(1/2)</f>
+        <v>0.17266162695720472</v>
+      </c>
+      <c r="L182" s="8"/>
+      <c r="M182" s="7"/>
+      <c r="N182" s="7">
+        <f t="shared" ref="N182:N190" si="119">IF(H182&gt;I182,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O182" s="2">
+        <f t="shared" ref="O182:O190" si="120">IF(H182=I182,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P182" s="7">
+        <f t="shared" ref="P182:P190" si="121">IF(H182&lt;I182,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q182">
+        <f t="shared" ref="Q182:Q190" si="122">(E182-N182)^2</f>
+        <v>0.31931155209628109</v>
+      </c>
+      <c r="R182">
+        <f t="shared" ref="R182:R190" si="123">((E182+F182)-(N182+O182))^2+Q182</f>
+        <v>0.34532325391440943</v>
+      </c>
+      <c r="S182">
+        <f t="shared" ref="S182:S190" si="124">((E182+F182+G182)-(N182+O182+P182))^2+R182</f>
+        <v>0.34532325391440943</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A183" s="6">
+        <v>26</v>
+      </c>
+      <c r="B183" s="4">
+        <v>45171</v>
+      </c>
+      <c r="C183" t="s">
+        <v>23</v>
+      </c>
+      <c r="D183" t="s">
+        <v>15</v>
+      </c>
+      <c r="E183">
+        <v>0.38556864857673601</v>
+      </c>
+      <c r="F183">
+        <v>0.28564286231994601</v>
+      </c>
+      <c r="G183">
+        <v>0.32878848910331698</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183">
+        <v>2</v>
+      </c>
+      <c r="J183">
+        <f t="shared" si="118"/>
+        <v>0.29959403756274866</v>
+      </c>
+      <c r="L183" s="8"/>
+      <c r="M183" s="7"/>
+      <c r="N183" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="O183" s="2">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="P183" s="7">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+      <c r="Q183">
+        <f t="shared" si="122"/>
+        <v>0.14866318276529056</v>
+      </c>
+      <c r="R183">
+        <f t="shared" si="123"/>
+        <v>0.59918807512549732</v>
+      </c>
+      <c r="S183">
+        <f t="shared" si="124"/>
+        <v>0.59918807512549732</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A184" s="6">
+        <v>26</v>
+      </c>
+      <c r="B184" s="4">
+        <v>45171</v>
+      </c>
+      <c r="C184" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184" t="s">
+        <v>25</v>
+      </c>
+      <c r="E184">
+        <v>0.26206773519516002</v>
+      </c>
+      <c r="F184">
+        <v>0.286188185214996</v>
+      </c>
+      <c r="G184">
+        <v>0.45174404978752097</v>
+      </c>
+      <c r="H184">
+        <v>2</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <f t="shared" si="118"/>
+        <v>0.37430837044223836</v>
+      </c>
+      <c r="L184" s="8"/>
+      <c r="M184" s="7"/>
+      <c r="N184" s="7">
+        <f t="shared" si="119"/>
+        <v>1</v>
+      </c>
+      <c r="O184" s="2">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="P184" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="Q184">
+        <f t="shared" si="122"/>
+        <v>0.54454402744000052</v>
+      </c>
+      <c r="R184">
+        <f t="shared" si="123"/>
+        <v>0.74861674088447583</v>
+      </c>
+      <c r="S184">
+        <f t="shared" si="124"/>
+        <v>0.74861674088447672</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A185" s="6">
+        <v>26</v>
+      </c>
+      <c r="B185" s="4">
+        <v>45171</v>
+      </c>
+      <c r="C185" t="s">
+        <v>20</v>
+      </c>
+      <c r="D185" t="s">
+        <v>18</v>
+      </c>
+      <c r="E185">
+        <v>0.25273755192756697</v>
+      </c>
+      <c r="F185">
+        <v>0.32826346158981301</v>
+      </c>
+      <c r="G185">
+        <v>0.41899895668029802</v>
+      </c>
+      <c r="H185">
+        <v>2</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185">
+        <f t="shared" si="118"/>
+        <v>0.11971821041390164</v>
+      </c>
+      <c r="L185" s="8"/>
+      <c r="M185" s="7"/>
+      <c r="N185" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="O185" s="2">
+        <f t="shared" si="120"/>
+        <v>1</v>
+      </c>
+      <c r="P185" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="Q185">
+        <f t="shared" si="122"/>
+        <v>6.3876270154339609E-2</v>
+      </c>
+      <c r="R185">
+        <f t="shared" si="123"/>
+        <v>0.23943642082780239</v>
+      </c>
+      <c r="S185">
+        <f t="shared" si="124"/>
+        <v>0.23943642082780328</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A186" s="6">
+        <v>26</v>
+      </c>
+      <c r="B186" s="4">
+        <v>45171</v>
+      </c>
+      <c r="C186" t="s">
+        <v>24</v>
+      </c>
+      <c r="D186" t="s">
+        <v>27</v>
+      </c>
+      <c r="E186">
+        <v>0.31373757123947099</v>
+      </c>
+      <c r="F186">
+        <v>0.261059731245041</v>
+      </c>
+      <c r="G186">
+        <v>0.425202697515488</v>
+      </c>
+      <c r="H186">
+        <v>3</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <f t="shared" si="118"/>
+        <v>0.32587672755137387</v>
+      </c>
+      <c r="L186" s="8"/>
+      <c r="M186" s="7"/>
+      <c r="N186" s="7">
+        <f t="shared" si="119"/>
+        <v>1</v>
+      </c>
+      <c r="O186" s="2">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="P186" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="Q186">
+        <f t="shared" si="122"/>
+        <v>0.47095612112830015</v>
+      </c>
+      <c r="R186">
+        <f t="shared" si="123"/>
+        <v>0.65175345510274774</v>
+      </c>
+      <c r="S186">
+        <f t="shared" si="124"/>
+        <v>0.65175345510274774</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A187" s="6">
+        <v>26</v>
+      </c>
+      <c r="B187" s="4">
+        <v>45171</v>
+      </c>
+      <c r="C187" t="s">
+        <v>17</v>
+      </c>
+      <c r="D187" t="s">
+        <v>16</v>
+      </c>
+      <c r="E187">
+        <v>0.46328526735305797</v>
+      </c>
+      <c r="F187">
+        <v>0.276378333568573</v>
+      </c>
+      <c r="G187">
+        <v>0.26033636927604697</v>
+      </c>
+      <c r="H187">
+        <v>2</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <f t="shared" si="118"/>
+        <v>0.17791887246268559</v>
+      </c>
+      <c r="L187" s="8"/>
+      <c r="M187" s="7"/>
+      <c r="N187" s="7">
+        <f t="shared" si="119"/>
+        <v>1</v>
+      </c>
+      <c r="O187" s="2">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="P187" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="Q187">
+        <f t="shared" si="122"/>
+        <v>0.28806270424027847</v>
+      </c>
+      <c r="R187">
+        <f t="shared" si="123"/>
+        <v>0.35583774492537029</v>
+      </c>
+      <c r="S187">
+        <f t="shared" si="124"/>
+        <v>0.35583774492537118</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A188" s="6">
+        <v>26</v>
+      </c>
+      <c r="B188" s="4">
+        <v>45171</v>
+      </c>
+      <c r="C188" t="s">
+        <v>26</v>
+      </c>
+      <c r="D188" t="s">
+        <v>21</v>
+      </c>
+      <c r="E188">
+        <v>0.56272661685943604</v>
+      </c>
+      <c r="F188">
+        <v>0.236179709434509</v>
+      </c>
+      <c r="G188">
+        <v>0.20109364390373199</v>
+      </c>
+      <c r="H188">
+        <v>4</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <f t="shared" si="118"/>
+        <v>0.11582333860389631</v>
+      </c>
+      <c r="L188" s="8"/>
+      <c r="M188" s="7"/>
+      <c r="N188" s="7">
+        <f t="shared" si="119"/>
+        <v>1</v>
+      </c>
+      <c r="O188" s="2">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="P188" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="Q188">
+        <f t="shared" si="122"/>
+        <v>0.19120801160319445</v>
+      </c>
+      <c r="R188">
+        <f t="shared" si="123"/>
+        <v>0.23164667720779172</v>
+      </c>
+      <c r="S188">
+        <f t="shared" si="124"/>
+        <v>0.23164667720779261</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A189" s="6">
+        <v>26</v>
+      </c>
+      <c r="B189" s="4">
+        <v>45171</v>
+      </c>
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" t="s">
+        <v>11</v>
+      </c>
+      <c r="E189">
+        <v>0.46286511421203602</v>
+      </c>
+      <c r="F189">
+        <v>0.27891606092452997</v>
+      </c>
+      <c r="G189">
+        <v>0.258218824863434</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <f t="shared" si="118"/>
+        <v>0.14046053773418699</v>
+      </c>
+      <c r="L189" s="8"/>
+      <c r="M189" s="7"/>
+      <c r="N189" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="O189" s="2">
+        <f t="shared" si="120"/>
+        <v>1</v>
+      </c>
+      <c r="P189" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="Q189">
+        <f t="shared" si="122"/>
+        <v>0.21424411395452114</v>
+      </c>
+      <c r="R189">
+        <f t="shared" si="123"/>
+        <v>0.28092107546837397</v>
+      </c>
+      <c r="S189">
+        <f t="shared" si="124"/>
+        <v>0.28092107546837397</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A190" s="6">
+        <v>26</v>
+      </c>
+      <c r="B190" s="4">
+        <v>45171</v>
+      </c>
+      <c r="C190" t="s">
+        <v>22</v>
+      </c>
+      <c r="D190" t="s">
+        <v>19</v>
+      </c>
+      <c r="E190">
+        <v>0.18237532675266299</v>
+      </c>
+      <c r="F190">
+        <v>0.25526803731918302</v>
+      </c>
+      <c r="G190">
+        <v>0.56235665082931496</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>2</v>
+      </c>
+      <c r="J190">
+        <f t="shared" si="118"/>
+        <v>0.11239623696213158</v>
+      </c>
+      <c r="L190" s="8"/>
+      <c r="M190" s="7"/>
+      <c r="N190" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="O190" s="2">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="P190" s="7">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+      <c r="Q190">
+        <f t="shared" si="122"/>
+        <v>3.3260759808140597E-2</v>
+      </c>
+      <c r="R190">
+        <f t="shared" si="123"/>
+        <v>0.22479247392426294</v>
+      </c>
+      <c r="S190">
+        <f t="shared" si="124"/>
+        <v>0.22479247392426316</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A191" s="6">
+        <v>27</v>
+      </c>
+      <c r="B191" s="4">
+        <v>45184</v>
+      </c>
+      <c r="C191" t="s">
+        <v>25</v>
+      </c>
+      <c r="D191" t="s">
+        <v>22</v>
+      </c>
+      <c r="E191">
+        <v>0.68016660200000001</v>
+      </c>
+      <c r="F191">
+        <v>0.190538973</v>
+      </c>
+      <c r="G191">
+        <v>0.12929441</v>
+      </c>
+      <c r="H191" s="7"/>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A192" s="6">
+        <v>27</v>
+      </c>
+      <c r="B192" s="4">
+        <v>45184</v>
+      </c>
+      <c r="C192" t="s">
+        <v>27</v>
+      </c>
+      <c r="D192" t="s">
+        <v>23</v>
+      </c>
+      <c r="E192">
+        <v>0.67146867499999996</v>
+      </c>
+      <c r="F192">
+        <v>0.18739216</v>
+      </c>
+      <c r="G192">
+        <v>0.14113916500000001</v>
+      </c>
+      <c r="H192" s="7"/>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A193" s="6">
+        <v>27</v>
+      </c>
+      <c r="B193" s="4">
+        <v>45184</v>
+      </c>
+      <c r="C193" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s">
+        <v>16</v>
+      </c>
+      <c r="E193">
+        <v>0.62502259000000004</v>
+      </c>
+      <c r="F193">
+        <v>0.21326076999999999</v>
+      </c>
+      <c r="G193">
+        <v>0.16171663999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A194" s="6">
+        <v>27</v>
+      </c>
+      <c r="B194" s="4">
+        <v>45185</v>
+      </c>
+      <c r="C194" t="s">
+        <v>18</v>
+      </c>
+      <c r="D194" t="s">
+        <v>24</v>
+      </c>
+      <c r="E194">
+        <v>0.31472951199999999</v>
+      </c>
+      <c r="F194">
+        <v>0.31655624500000001</v>
+      </c>
+      <c r="G194">
+        <v>0.36871427299999998</v>
+      </c>
+      <c r="I194" s="7"/>
+      <c r="M194" s="8"/>
+      <c r="N194" s="7"/>
+      <c r="O194" s="7"/>
+      <c r="Q194" s="7"/>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A195" s="6">
+        <v>27</v>
+      </c>
+      <c r="B195" s="4">
+        <v>45185</v>
+      </c>
+      <c r="C195" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" t="s">
+        <v>13</v>
+      </c>
+      <c r="E195">
+        <v>0.40148598000000002</v>
+      </c>
+      <c r="F195">
+        <v>0.32055005399999997</v>
+      </c>
+      <c r="G195">
+        <v>0.27796393600000002</v>
+      </c>
+      <c r="I195" s="7"/>
+      <c r="M195" s="8"/>
+      <c r="N195" s="7"/>
+      <c r="O195" s="7"/>
+      <c r="Q195" s="7"/>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A196" s="6">
+        <v>27</v>
+      </c>
+      <c r="B196" s="4">
+        <v>45185</v>
+      </c>
+      <c r="C196" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196" t="s">
+        <v>17</v>
+      </c>
+      <c r="E196">
+        <v>0.30950686300000002</v>
+      </c>
+      <c r="F196">
+        <v>0.28279049899999997</v>
+      </c>
+      <c r="G196">
+        <v>0.40770260800000002</v>
+      </c>
+      <c r="I196" s="7"/>
+      <c r="M196" s="8"/>
+      <c r="N196" s="7"/>
+      <c r="O196" s="7"/>
+      <c r="Q196" s="7"/>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A197" s="6">
+        <v>27</v>
+      </c>
+      <c r="B197" s="4">
+        <v>45185</v>
+      </c>
+      <c r="C197" t="s">
+        <v>26</v>
+      </c>
+      <c r="D197" t="s">
+        <v>20</v>
+      </c>
+      <c r="E197">
+        <v>0.60090994799999997</v>
+      </c>
+      <c r="F197">
+        <v>0.18786895300000001</v>
+      </c>
+      <c r="G197">
+        <v>0.21122112900000001</v>
+      </c>
+      <c r="I197" s="7"/>
+      <c r="M197" s="8"/>
+      <c r="N197" s="7"/>
+      <c r="O197" s="7"/>
+      <c r="Q197" s="7"/>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A198" s="6">
+        <v>27</v>
+      </c>
+      <c r="B198" s="4">
+        <v>45186</v>
+      </c>
+      <c r="C198" t="s">
+        <v>14</v>
+      </c>
+      <c r="D198" t="s">
+        <v>10</v>
+      </c>
+      <c r="E198">
+        <v>0.24471878999999999</v>
+      </c>
+      <c r="F198">
+        <v>0.32432144899999998</v>
+      </c>
+      <c r="G198">
+        <v>0.43095979099999998</v>
+      </c>
+      <c r="I198" s="7"/>
+      <c r="M198" s="8"/>
+      <c r="N198" s="7"/>
+      <c r="O198" s="7"/>
+      <c r="Q198" s="7"/>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A199" s="6">
+        <v>27</v>
+      </c>
+      <c r="B199" s="4">
+        <v>45186</v>
+      </c>
+      <c r="C199" t="s">
+        <v>21</v>
+      </c>
+      <c r="D199" t="s">
+        <v>12</v>
+      </c>
+      <c r="E199">
+        <v>0.324422508</v>
+      </c>
+      <c r="F199">
+        <v>0.232186794</v>
+      </c>
+      <c r="G199">
+        <v>0.44339066700000002</v>
+      </c>
+      <c r="I199" s="7"/>
+      <c r="M199" s="8"/>
+      <c r="N199" s="7"/>
+      <c r="O199" s="7"/>
+      <c r="Q199" s="7"/>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F200" s="7"/>
+      <c r="G200" s="7"/>
+      <c r="I200" s="7"/>
+      <c r="M200" s="8"/>
+      <c r="N200" s="7"/>
+      <c r="O200" s="7"/>
+      <c r="Q200" s="7"/>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F201" s="7"/>
+      <c r="G201" s="7"/>
+      <c r="I201" s="7"/>
+      <c r="M201" s="8"/>
+      <c r="N201" s="7"/>
+      <c r="O201" s="7"/>
+      <c r="Q201" s="7"/>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F202" s="7"/>
+      <c r="G202" s="7"/>
+      <c r="I202" s="7"/>
+      <c r="M202" s="8"/>
+      <c r="N202" s="7"/>
+      <c r="O202" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
